--- a/tests/Headway_Sat_C_x_13M_SemMotobox_D4_0004.xlsx
+++ b/tests/Headway_Sat_C_x_13M_SemMotobox_D4_0004.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W115"/>
+  <dimension ref="A1:Y145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,42 +511,52 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>id_follower2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>headway</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>valid</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>headway</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>idQmev</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Qmev</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>idQmcv</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Qmcv</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>idMaxHd</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>idMax</t>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MaxHd</t>
         </is>
       </c>
     </row>
@@ -598,32 +608,36 @@
         <v>4</v>
       </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="b">
-        <v>1</v>
+      <c r="P2" t="n">
+        <v>-1</v>
       </c>
       <c r="Q2" t="n">
         <v>4.441800000000001</v>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[11]</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>[22]</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>8</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>4.441800000000001</v>
       </c>
     </row>
@@ -677,20 +691,16 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="b">
-        <v>1</v>
+      <c r="P3" t="n">
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
         <v>3.0481</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
           <t>[]</t>
@@ -699,10 +709,18 @@
       <c r="U3" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>4</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>3.0481</v>
       </c>
     </row>
@@ -756,32 +774,36 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="b">
-        <v>1</v>
+      <c r="P4" t="n">
+        <v>13</v>
       </c>
       <c r="Q4" t="n">
         <v>3.9788</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>13</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>3.9788</v>
       </c>
     </row>
@@ -835,20 +857,16 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="b">
-        <v>1</v>
+      <c r="P5" t="n">
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>3.255400000000002</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
           <t>[]</t>
@@ -857,10 +875,18 @@
       <c r="U5" t="n">
         <v>0</v>
       </c>
-      <c r="V5" t="n">
-        <v>2</v>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
         <v>3.255400000000002</v>
       </c>
     </row>
@@ -914,20 +940,16 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="b">
-        <v>1</v>
+      <c r="P6" t="n">
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
         <v>3.3187</v>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
           <t>[]</t>
@@ -936,10 +958,18 @@
       <c r="U6" t="n">
         <v>0</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>6</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>3.3187</v>
       </c>
     </row>
@@ -993,20 +1023,16 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="b">
-        <v>1</v>
+      <c r="P7" t="n">
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
         <v>2.921600000000002</v>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1015,10 +1041,18 @@
       <c r="U7" t="n">
         <v>0</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>7</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>2.921600000000002</v>
       </c>
     </row>
@@ -1072,32 +1106,36 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="b">
-        <v>1</v>
+      <c r="P8" t="n">
+        <v>45</v>
       </c>
       <c r="Q8" t="n">
         <v>3.258099999999999</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
         <is>
           <t>[43]</t>
         </is>
       </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>45</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>2.235499999999998</v>
       </c>
     </row>
@@ -1151,20 +1189,16 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="b">
-        <v>1</v>
+      <c r="P9" t="n">
+        <v>50</v>
       </c>
       <c r="Q9" t="n">
         <v>2.497299999999999</v>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1173,10 +1207,18 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>50</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>2.497299999999999</v>
       </c>
     </row>
@@ -1230,20 +1272,16 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="b">
-        <v>1</v>
+      <c r="P10" t="n">
+        <v>58</v>
       </c>
       <c r="Q10" t="n">
         <v>1.829099999999997</v>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1252,10 +1290,18 @@
       <c r="U10" t="n">
         <v>0</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>58</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>1.829099999999997</v>
       </c>
     </row>
@@ -1309,20 +1355,16 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="b">
-        <v>1</v>
+      <c r="P11" t="n">
+        <v>61</v>
       </c>
       <c r="Q11" t="n">
         <v>2.164500000000004</v>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1331,10 +1373,18 @@
       <c r="U11" t="n">
         <v>0</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>61</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>2.164500000000004</v>
       </c>
     </row>
@@ -1388,20 +1438,16 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="b">
-        <v>1</v>
+      <c r="P12" t="n">
+        <v>65</v>
       </c>
       <c r="Q12" t="n">
         <v>1.936399999999999</v>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1410,10 +1456,18 @@
       <c r="U12" t="n">
         <v>0</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>[64]</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
         <v>65</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>1.936399999999999</v>
       </c>
     </row>
@@ -1467,32 +1521,32 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="b">
-        <v>1</v>
+      <c r="P13" t="n">
+        <v>-1</v>
       </c>
       <c r="Q13" t="n">
         <v>21.8249</v>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="n">
         <v>123</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Y13" t="n">
         <v>21.8249</v>
       </c>
     </row>
@@ -1523,7 +1577,7 @@
         <v>30.08080808080808</v>
       </c>
       <c r="H14" t="n">
-        <v>-200</v>
+        <v>-404</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1540,26 +1594,36 @@
         <v>4</v>
       </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>@Seguidor não cruzou a faixa@Líder e seguidor passaram de em instantes contrários@Troca de faixa</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="n">
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="n">
         <v>-1</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1605,35 +1669,43 @@
         <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>-200</v>
+        <v>-404</v>
       </c>
       <c r="N15" t="n">
-        <v>-6.67</v>
+        <v>-13.47</v>
       </c>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="b">
-        <v>0</v>
+      <c r="P15" t="n">
+        <v>-1</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.4484</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>@Líder não cruzou a faixa@Problema com o líder</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="n">
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="n">
         <v>9</v>
       </c>
-      <c r="W15" t="n">
-        <v>18.4484</v>
+      <c r="Y15" t="n">
+        <v>25.2484</v>
       </c>
     </row>
     <row r="16">
@@ -1686,33 +1758,37 @@
       <c r="O16" t="n">
         <v>2</v>
       </c>
-      <c r="P16" t="b">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>5.180299999999999</v>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>[16, 18, 25]</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[16, 18]</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W16" t="n">
-        <v>2.168899999999999</v>
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2.836199999999998</v>
       </c>
     </row>
     <row r="17">
@@ -1765,20 +1841,16 @@
       <c r="O17" t="n">
         <v>2</v>
       </c>
-      <c r="P17" t="b">
-        <v>1</v>
+      <c r="P17" t="n">
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
         <v>2.1891</v>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1787,10 +1859,18 @@
       <c r="U17" t="n">
         <v>0</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>3</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Y17" t="n">
         <v>2.1891</v>
       </c>
     </row>
@@ -1844,20 +1924,16 @@
       <c r="O18" t="n">
         <v>2</v>
       </c>
-      <c r="P18" t="b">
-        <v>1</v>
+      <c r="P18" t="n">
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
         <v>2.221299999999999</v>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1866,10 +1942,18 @@
       <c r="U18" t="n">
         <v>0</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>5</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
         <v>2.221299999999999</v>
       </c>
     </row>
@@ -1923,20 +2007,16 @@
       <c r="O19" t="n">
         <v>2</v>
       </c>
-      <c r="P19" t="b">
-        <v>1</v>
+      <c r="P19" t="n">
+        <v>26</v>
       </c>
       <c r="Q19" t="n">
         <v>2.056699999999999</v>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1945,10 +2025,18 @@
       <c r="U19" t="n">
         <v>0</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>26</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
         <v>2.056699999999999</v>
       </c>
     </row>
@@ -2002,20 +2090,16 @@
       <c r="O20" t="n">
         <v>2</v>
       </c>
-      <c r="P20" t="b">
-        <v>1</v>
+      <c r="P20" t="n">
+        <v>41</v>
       </c>
       <c r="Q20" t="n">
         <v>2.662700000000001</v>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2024,10 +2108,18 @@
       <c r="U20" t="n">
         <v>0</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>41</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>2.662700000000001</v>
       </c>
     </row>
@@ -2081,20 +2173,16 @@
       <c r="O21" t="n">
         <v>2</v>
       </c>
-      <c r="P21" t="b">
-        <v>1</v>
+      <c r="P21" t="n">
+        <v>47</v>
       </c>
       <c r="Q21" t="n">
         <v>3.2926</v>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2103,10 +2191,18 @@
       <c r="U21" t="n">
         <v>0</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>47</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Y21" t="n">
         <v>3.2926</v>
       </c>
     </row>
@@ -2160,20 +2256,16 @@
       <c r="O22" t="n">
         <v>2</v>
       </c>
-      <c r="P22" t="b">
-        <v>1</v>
+      <c r="P22" t="n">
+        <v>57</v>
       </c>
       <c r="Q22" t="n">
         <v>2.5017</v>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2182,10 +2274,18 @@
       <c r="U22" t="n">
         <v>0</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>57</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Y22" t="n">
         <v>2.5017</v>
       </c>
     </row>
@@ -2239,20 +2339,16 @@
       <c r="O23" t="n">
         <v>2</v>
       </c>
-      <c r="P23" t="b">
-        <v>1</v>
+      <c r="P23" t="n">
+        <v>60</v>
       </c>
       <c r="Q23" t="n">
         <v>1.900299999999998</v>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2261,10 +2357,18 @@
       <c r="U23" t="n">
         <v>0</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>60</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Y23" t="n">
         <v>1.900299999999998</v>
       </c>
     </row>
@@ -2318,33 +2422,37 @@
       <c r="O24" t="n">
         <v>2</v>
       </c>
-      <c r="P24" t="b">
-        <v>1</v>
+      <c r="P24" t="n">
+        <v>71</v>
       </c>
       <c r="Q24" t="n">
         <v>4.067599999999999</v>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>[72]</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[64, 67]</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W24" t="n">
-        <v>2.666199999999996</v>
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>71</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.435699999999997</v>
       </c>
     </row>
     <row r="25">
@@ -2397,20 +2505,16 @@
       <c r="O25" t="n">
         <v>2</v>
       </c>
-      <c r="P25" t="b">
-        <v>1</v>
+      <c r="P25" t="n">
+        <v>74</v>
       </c>
       <c r="Q25" t="n">
         <v>1.439</v>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
+      <c r="R25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2419,10 +2523,18 @@
       <c r="U25" t="n">
         <v>0</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>74</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Y25" t="n">
         <v>1.439</v>
       </c>
     </row>
@@ -2476,20 +2588,16 @@
       <c r="O26" t="n">
         <v>2</v>
       </c>
-      <c r="P26" t="b">
-        <v>1</v>
+      <c r="P26" t="n">
+        <v>79</v>
       </c>
       <c r="Q26" t="n">
         <v>2.308</v>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2498,10 +2606,18 @@
       <c r="U26" t="n">
         <v>0</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>79</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
         <v>2.308</v>
       </c>
     </row>
@@ -2555,20 +2671,16 @@
       <c r="O27" t="n">
         <v>2</v>
       </c>
-      <c r="P27" t="b">
-        <v>1</v>
+      <c r="P27" t="n">
+        <v>83</v>
       </c>
       <c r="Q27" t="n">
         <v>1.939899999999994</v>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
+      <c r="R27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2577,10 +2689,18 @@
       <c r="U27" t="n">
         <v>0</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>83</v>
       </c>
-      <c r="W27" t="n">
+      <c r="Y27" t="n">
         <v>1.939899999999994</v>
       </c>
     </row>
@@ -2634,20 +2754,16 @@
       <c r="O28" t="n">
         <v>2</v>
       </c>
-      <c r="P28" t="b">
-        <v>1</v>
+      <c r="P28" t="n">
+        <v>86</v>
       </c>
       <c r="Q28" t="n">
         <v>1.674799999999998</v>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
+      <c r="R28" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2656,10 +2772,18 @@
       <c r="U28" t="n">
         <v>0</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>86</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Y28" t="n">
         <v>1.674799999999998</v>
       </c>
     </row>
@@ -2713,32 +2837,32 @@
       <c r="O29" t="n">
         <v>2</v>
       </c>
-      <c r="P29" t="b">
-        <v>1</v>
+      <c r="P29" t="n">
+        <v>-1</v>
       </c>
       <c r="Q29" t="n">
         <v>9.120600000000003</v>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="n">
         <v>106</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Y29" t="n">
         <v>9.120600000000003</v>
       </c>
     </row>
@@ -2792,20 +2916,16 @@
       <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="P30" t="b">
-        <v>1</v>
+      <c r="P30" t="n">
+        <v>119</v>
       </c>
       <c r="Q30" t="n">
         <v>2.2194</v>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2814,10 +2934,18 @@
       <c r="U30" t="n">
         <v>0</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>119</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y30" t="n">
         <v>2.2194</v>
       </c>
     </row>
@@ -2869,33 +2997,37 @@
         <v>164</v>
       </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="b">
-        <v>1</v>
+      <c r="P31" t="n">
+        <v>-1</v>
       </c>
       <c r="Q31" t="n">
         <v>3.700999999999993</v>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
+          <t>[174]</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
           <t>[162]</t>
         </is>
       </c>
-      <c r="U31" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" t="n">
-        <v>160</v>
-      </c>
       <c r="W31" t="n">
-        <v>3.700999999999993</v>
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>21.02369999999999</v>
       </c>
     </row>
     <row r="32">
@@ -2948,33 +3080,37 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="b">
-        <v>1</v>
+      <c r="P32" t="n">
+        <v>166</v>
       </c>
       <c r="Q32" t="n">
         <v>6.343899999999991</v>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>[179]</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[178]</t>
+          <t>[176, 178, 186]</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
-      </c>
-      <c r="V32" t="n">
-        <v>179</v>
+        <v>3</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>[179, 177]</t>
+        </is>
       </c>
       <c r="W32" t="n">
-        <v>3.340900000000005</v>
+        <v>2</v>
+      </c>
+      <c r="X32" t="n">
+        <v>166</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3.770499999999998</v>
       </c>
     </row>
     <row r="33">
@@ -3027,20 +3163,16 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="b">
-        <v>1</v>
+      <c r="P33" t="n">
+        <v>167</v>
       </c>
       <c r="Q33" t="n">
         <v>3.844200000000001</v>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>[187]</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3049,11 +3181,19 @@
       <c r="U33" t="n">
         <v>0</v>
       </c>
-      <c r="V33" t="n">
-        <v>187</v>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W33" t="n">
-        <v>2.442800000000005</v>
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>167</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3.844200000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3106,32 +3246,36 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="b">
-        <v>1</v>
+      <c r="P34" t="n">
+        <v>168</v>
       </c>
       <c r="Q34" t="n">
         <v>2.543199999999985</v>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[192]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
-      </c>
-      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>168</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Y34" t="n">
         <v>2.543199999999985</v>
       </c>
     </row>
@@ -3185,20 +3329,16 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="b">
-        <v>1</v>
+      <c r="P35" t="n">
+        <v>169</v>
       </c>
       <c r="Q35" t="n">
         <v>2.552300000000002</v>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3207,10 +3347,18 @@
       <c r="U35" t="n">
         <v>0</v>
       </c>
-      <c r="V35" t="n">
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>169</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
         <v>2.552300000000002</v>
       </c>
     </row>
@@ -3264,20 +3412,16 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="b">
-        <v>1</v>
+      <c r="P36" t="n">
+        <v>203</v>
       </c>
       <c r="Q36" t="n">
         <v>2.217700000000008</v>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
+      <c r="R36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3286,10 +3430,18 @@
       <c r="U36" t="n">
         <v>0</v>
       </c>
-      <c r="V36" t="n">
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
         <v>203</v>
       </c>
-      <c r="W36" t="n">
+      <c r="Y36" t="n">
         <v>2.217700000000008</v>
       </c>
     </row>
@@ -3343,20 +3495,16 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="b">
-        <v>1</v>
+      <c r="P37" t="n">
+        <v>208</v>
       </c>
       <c r="Q37" t="n">
         <v>2.389900000000011</v>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
+      <c r="R37" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3365,10 +3513,18 @@
       <c r="U37" t="n">
         <v>0</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>208</v>
       </c>
-      <c r="W37" t="n">
+      <c r="Y37" t="n">
         <v>2.389900000000011</v>
       </c>
     </row>
@@ -3422,20 +3578,16 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="b">
-        <v>1</v>
+      <c r="P38" t="n">
+        <v>213</v>
       </c>
       <c r="Q38" t="n">
         <v>2.625599999999991</v>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
+      <c r="R38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3444,10 +3596,18 @@
       <c r="U38" t="n">
         <v>0</v>
       </c>
-      <c r="V38" t="n">
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>213</v>
       </c>
-      <c r="W38" t="n">
+      <c r="Y38" t="n">
         <v>2.625599999999991</v>
       </c>
     </row>
@@ -3501,20 +3661,16 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="b">
-        <v>1</v>
+      <c r="P39" t="n">
+        <v>224</v>
       </c>
       <c r="Q39" t="n">
         <v>3.488900000000001</v>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>[228]</t>
-        </is>
-      </c>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+      <c r="R39" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3523,11 +3679,19 @@
       <c r="U39" t="n">
         <v>0</v>
       </c>
-      <c r="V39" t="n">
-        <v>228</v>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W39" t="n">
-        <v>2.554699999999997</v>
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>224</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>3.488900000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3580,20 +3744,16 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="b">
-        <v>1</v>
+      <c r="P40" t="n">
+        <v>233</v>
       </c>
       <c r="Q40" t="n">
         <v>2.224299999999999</v>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
+      <c r="R40" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3602,10 +3762,18 @@
       <c r="U40" t="n">
         <v>0</v>
       </c>
-      <c r="V40" t="n">
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>233</v>
       </c>
-      <c r="W40" t="n">
+      <c r="Y40" t="n">
         <v>2.224299999999999</v>
       </c>
     </row>
@@ -3659,20 +3827,16 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="b">
-        <v>1</v>
+      <c r="P41" t="n">
+        <v>240</v>
       </c>
       <c r="Q41" t="n">
         <v>2.09620000000001</v>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
+      <c r="R41" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3681,10 +3845,18 @@
       <c r="U41" t="n">
         <v>0</v>
       </c>
-      <c r="V41" t="n">
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>240</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Y41" t="n">
         <v>2.09620000000001</v>
       </c>
     </row>
@@ -3738,20 +3910,16 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="b">
-        <v>1</v>
+      <c r="P42" t="n">
+        <v>250</v>
       </c>
       <c r="Q42" t="n">
         <v>3.9666</v>
       </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
+      <c r="R42" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3760,10 +3928,18 @@
       <c r="U42" t="n">
         <v>0</v>
       </c>
-      <c r="V42" t="n">
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>250</v>
       </c>
-      <c r="W42" t="n">
+      <c r="Y42" t="n">
         <v>3.9666</v>
       </c>
     </row>
@@ -3817,20 +3993,16 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="b">
-        <v>1</v>
+      <c r="P43" t="n">
+        <v>254</v>
       </c>
       <c r="Q43" t="n">
         <v>2.165300000000002</v>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
+      <c r="R43" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3839,10 +4011,18 @@
       <c r="U43" t="n">
         <v>0</v>
       </c>
-      <c r="V43" t="n">
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>254</v>
       </c>
-      <c r="W43" t="n">
+      <c r="Y43" t="n">
         <v>2.165300000000002</v>
       </c>
     </row>
@@ -3896,20 +4076,16 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" t="b">
-        <v>1</v>
+      <c r="P44" t="n">
+        <v>262</v>
       </c>
       <c r="Q44" t="n">
         <v>2.841200000000015</v>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
+      <c r="R44" t="b">
+        <v>1</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3918,10 +4094,18 @@
       <c r="U44" t="n">
         <v>0</v>
       </c>
-      <c r="V44" t="n">
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>262</v>
       </c>
-      <c r="W44" t="n">
+      <c r="Y44" t="n">
         <v>2.841200000000015</v>
       </c>
     </row>
@@ -3975,20 +4159,16 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="b">
-        <v>1</v>
+      <c r="P45" t="n">
+        <v>265</v>
       </c>
       <c r="Q45" t="n">
         <v>2.236599999999981</v>
       </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
+      <c r="R45" t="b">
+        <v>1</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3997,10 +4177,18 @@
       <c r="U45" t="n">
         <v>0</v>
       </c>
-      <c r="V45" t="n">
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>265</v>
       </c>
-      <c r="W45" t="n">
+      <c r="Y45" t="n">
         <v>2.236599999999981</v>
       </c>
     </row>
@@ -4054,32 +4242,32 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="b">
-        <v>1</v>
+      <c r="P46" t="n">
+        <v>-1</v>
       </c>
       <c r="Q46" t="n">
         <v>12.4188</v>
       </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
+      <c r="R46" t="b">
+        <v>1</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="n">
         <v>294</v>
       </c>
-      <c r="W46" t="n">
+      <c r="Y46" t="n">
         <v>12.4188</v>
       </c>
     </row>
@@ -4133,32 +4321,32 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" t="b">
-        <v>1</v>
+      <c r="P47" t="n">
+        <v>-1</v>
       </c>
       <c r="Q47" t="n">
         <v>8.99430000000001</v>
       </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
+      <c r="R47" t="b">
+        <v>1</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="n">
         <v>303</v>
       </c>
-      <c r="W47" t="n">
+      <c r="Y47" t="n">
         <v>8.99430000000001</v>
       </c>
     </row>
@@ -4210,28 +4398,36 @@
         <v>164</v>
       </c>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="b">
-        <v>0</v>
+      <c r="P48" t="n">
+        <v>-1</v>
       </c>
       <c r="Q48" t="n">
-        <v>-86.02200000000001</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@Líder e seguidor passaram de em instantes contrários</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="n">
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="n">
         <v>-1</v>
       </c>
-      <c r="W48" t="n">
+      <c r="Y48" t="n">
         <v>86.02200000000001</v>
       </c>
     </row>
@@ -4285,32 +4481,32 @@
       <c r="O49" t="n">
         <v>2</v>
       </c>
-      <c r="P49" t="b">
-        <v>1</v>
+      <c r="P49" t="n">
+        <v>156</v>
       </c>
       <c r="Q49" t="n">
         <v>93.1377</v>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
+      <c r="R49" t="b">
+        <v>1</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="n">
         <v>156</v>
       </c>
-      <c r="W49" t="n">
+      <c r="Y49" t="n">
         <v>93.1377</v>
       </c>
     </row>
@@ -4364,20 +4560,16 @@
       <c r="O50" t="n">
         <v>2</v>
       </c>
-      <c r="P50" t="b">
-        <v>1</v>
+      <c r="P50" t="n">
+        <v>159</v>
       </c>
       <c r="Q50" t="n">
         <v>4.505400000000009</v>
       </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
+      <c r="R50" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
           <t>[]</t>
@@ -4386,10 +4578,18 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
-      <c r="V50" t="n">
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>[185]</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
         <v>159</v>
       </c>
-      <c r="W50" t="n">
+      <c r="Y50" t="n">
         <v>4.505400000000009</v>
       </c>
     </row>
@@ -4443,33 +4643,37 @@
       <c r="O51" t="n">
         <v>2</v>
       </c>
-      <c r="P51" t="b">
-        <v>1</v>
+      <c r="P51" t="n">
+        <v>161</v>
       </c>
       <c r="Q51" t="n">
         <v>2.844700000000017</v>
       </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
+      <c r="R51" t="b">
+        <v>1</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[187]</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
         <v>161</v>
       </c>
-      <c r="W51" t="n">
-        <v>2.844700000000017</v>
+      <c r="Y51" t="n">
+        <v>1.901900000000012</v>
       </c>
     </row>
     <row r="52">
@@ -4522,20 +4726,16 @@
       <c r="O52" t="n">
         <v>2</v>
       </c>
-      <c r="P52" t="b">
-        <v>1</v>
+      <c r="P52" t="n">
+        <v>165</v>
       </c>
       <c r="Q52" t="n">
         <v>2.743899999999996</v>
       </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
+      <c r="R52" t="b">
+        <v>1</v>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
           <t>[]</t>
@@ -4544,10 +4744,18 @@
       <c r="U52" t="n">
         <v>0</v>
       </c>
-      <c r="V52" t="n">
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
         <v>165</v>
       </c>
-      <c r="W52" t="n">
+      <c r="Y52" t="n">
         <v>2.743899999999996</v>
       </c>
     </row>
@@ -4601,20 +4809,16 @@
       <c r="O53" t="n">
         <v>2</v>
       </c>
-      <c r="P53" t="b">
-        <v>1</v>
+      <c r="P53" t="n">
+        <v>201</v>
       </c>
       <c r="Q53" t="n">
         <v>2.386099999999999</v>
       </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S53" t="n">
-        <v>0</v>
-      </c>
+      <c r="R53" t="b">
+        <v>1</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
           <t>[]</t>
@@ -4623,10 +4827,18 @@
       <c r="U53" t="n">
         <v>0</v>
       </c>
-      <c r="V53" t="n">
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
         <v>201</v>
       </c>
-      <c r="W53" t="n">
+      <c r="Y53" t="n">
         <v>2.386099999999999</v>
       </c>
     </row>
@@ -4680,32 +4892,36 @@
       <c r="O54" t="n">
         <v>2</v>
       </c>
-      <c r="P54" t="b">
-        <v>1</v>
+      <c r="P54" t="n">
+        <v>206</v>
       </c>
       <c r="Q54" t="n">
         <v>2.621900000000011</v>
       </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
+      <c r="R54" t="b">
+        <v>1</v>
+      </c>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>[210]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
         <v>206</v>
       </c>
-      <c r="W54" t="n">
+      <c r="Y54" t="n">
         <v>2.621900000000011</v>
       </c>
     </row>
@@ -4759,20 +4975,16 @@
       <c r="O55" t="n">
         <v>2</v>
       </c>
-      <c r="P55" t="b">
-        <v>1</v>
+      <c r="P55" t="n">
+        <v>212</v>
       </c>
       <c r="Q55" t="n">
         <v>2.617700000000013</v>
       </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S55" t="n">
-        <v>0</v>
-      </c>
+      <c r="R55" t="b">
+        <v>1</v>
+      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
           <t>[]</t>
@@ -4781,10 +4993,18 @@
       <c r="U55" t="n">
         <v>0</v>
       </c>
-      <c r="V55" t="n">
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
         <v>212</v>
       </c>
-      <c r="W55" t="n">
+      <c r="Y55" t="n">
         <v>2.617700000000013</v>
       </c>
     </row>
@@ -4838,20 +5058,16 @@
       <c r="O56" t="n">
         <v>2</v>
       </c>
-      <c r="P56" t="b">
-        <v>1</v>
+      <c r="P56" t="n">
+        <v>221</v>
       </c>
       <c r="Q56" t="n">
         <v>2.957099999999997</v>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
+      <c r="R56" t="b">
+        <v>1</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
           <t>[]</t>
@@ -4860,10 +5076,18 @@
       <c r="U56" t="n">
         <v>0</v>
       </c>
-      <c r="V56" t="n">
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
         <v>221</v>
       </c>
-      <c r="W56" t="n">
+      <c r="Y56" t="n">
         <v>2.957099999999997</v>
       </c>
     </row>
@@ -4917,20 +5141,16 @@
       <c r="O57" t="n">
         <v>2</v>
       </c>
-      <c r="P57" t="b">
-        <v>1</v>
+      <c r="P57" t="n">
+        <v>232</v>
       </c>
       <c r="Q57" t="n">
         <v>2.789699999999982</v>
       </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
+      <c r="R57" t="b">
+        <v>1</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
           <t>[228]</t>
@@ -4939,11 +5159,19 @@
       <c r="U57" t="n">
         <v>1</v>
       </c>
-      <c r="V57" t="n">
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
         <v>232</v>
       </c>
-      <c r="W57" t="n">
-        <v>2.789699999999982</v>
+      <c r="Y57" t="n">
+        <v>1.734999999999985</v>
       </c>
     </row>
     <row r="58">
@@ -4996,20 +5224,16 @@
       <c r="O58" t="n">
         <v>2</v>
       </c>
-      <c r="P58" t="b">
-        <v>1</v>
+      <c r="P58" t="n">
+        <v>241</v>
       </c>
       <c r="Q58" t="n">
         <v>3.025900000000007</v>
       </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
+      <c r="R58" t="b">
+        <v>1</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5018,10 +5242,18 @@
       <c r="U58" t="n">
         <v>0</v>
       </c>
-      <c r="V58" t="n">
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
         <v>241</v>
       </c>
-      <c r="W58" t="n">
+      <c r="Y58" t="n">
         <v>3.025900000000007</v>
       </c>
     </row>
@@ -5075,20 +5307,16 @@
       <c r="O59" t="n">
         <v>2</v>
       </c>
-      <c r="P59" t="b">
-        <v>1</v>
+      <c r="P59" t="n">
+        <v>247</v>
       </c>
       <c r="Q59" t="n">
         <v>2.998700000000014</v>
       </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
+      <c r="R59" t="b">
+        <v>1</v>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5097,10 +5325,18 @@
       <c r="U59" t="n">
         <v>0</v>
       </c>
-      <c r="V59" t="n">
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
         <v>247</v>
       </c>
-      <c r="W59" t="n">
+      <c r="Y59" t="n">
         <v>2.998700000000014</v>
       </c>
     </row>
@@ -5154,20 +5390,16 @@
       <c r="O60" t="n">
         <v>2</v>
       </c>
-      <c r="P60" t="b">
-        <v>1</v>
+      <c r="P60" t="n">
+        <v>251</v>
       </c>
       <c r="Q60" t="n">
         <v>1.86699999999999</v>
       </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
+      <c r="R60" t="b">
+        <v>1</v>
+      </c>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5176,10 +5408,18 @@
       <c r="U60" t="n">
         <v>0</v>
       </c>
-      <c r="V60" t="n">
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
         <v>251</v>
       </c>
-      <c r="W60" t="n">
+      <c r="Y60" t="n">
         <v>1.86699999999999</v>
       </c>
     </row>
@@ -5233,20 +5473,16 @@
       <c r="O61" t="n">
         <v>2</v>
       </c>
-      <c r="P61" t="b">
-        <v>1</v>
+      <c r="P61" t="n">
+        <v>257</v>
       </c>
       <c r="Q61" t="n">
         <v>2.6995</v>
       </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S61" t="n">
-        <v>0</v>
-      </c>
+      <c r="R61" t="b">
+        <v>1</v>
+      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5255,10 +5491,18 @@
       <c r="U61" t="n">
         <v>0</v>
       </c>
-      <c r="V61" t="n">
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
         <v>257</v>
       </c>
-      <c r="W61" t="n">
+      <c r="Y61" t="n">
         <v>2.6995</v>
       </c>
     </row>
@@ -5312,20 +5556,16 @@
       <c r="O62" t="n">
         <v>2</v>
       </c>
-      <c r="P62" t="b">
-        <v>1</v>
+      <c r="P62" t="n">
+        <v>260</v>
       </c>
       <c r="Q62" t="n">
         <v>2.168200000000013</v>
       </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S62" t="n">
-        <v>0</v>
-      </c>
+      <c r="R62" t="b">
+        <v>1</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5334,10 +5574,18 @@
       <c r="U62" t="n">
         <v>0</v>
       </c>
-      <c r="V62" t="n">
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
         <v>260</v>
       </c>
-      <c r="W62" t="n">
+      <c r="Y62" t="n">
         <v>2.168200000000013</v>
       </c>
     </row>
@@ -5391,20 +5639,16 @@
       <c r="O63" t="n">
         <v>2</v>
       </c>
-      <c r="P63" t="b">
-        <v>1</v>
+      <c r="P63" t="n">
+        <v>268</v>
       </c>
       <c r="Q63" t="n">
         <v>2.877499999999998</v>
       </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
+      <c r="R63" t="b">
+        <v>1</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5413,10 +5657,18 @@
       <c r="U63" t="n">
         <v>0</v>
       </c>
-      <c r="V63" t="n">
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
         <v>268</v>
       </c>
-      <c r="W63" t="n">
+      <c r="Y63" t="n">
         <v>2.877499999999998</v>
       </c>
     </row>
@@ -5470,20 +5722,16 @@
       <c r="O64" t="n">
         <v>2</v>
       </c>
-      <c r="P64" t="b">
-        <v>1</v>
+      <c r="P64" t="n">
+        <v>274</v>
       </c>
       <c r="Q64" t="n">
         <v>3.544199999999989</v>
       </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
+      <c r="R64" t="b">
+        <v>1</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5492,10 +5740,18 @@
       <c r="U64" t="n">
         <v>0</v>
       </c>
-      <c r="V64" t="n">
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
         <v>274</v>
       </c>
-      <c r="W64" t="n">
+      <c r="Y64" t="n">
         <v>3.544199999999989</v>
       </c>
     </row>
@@ -5549,20 +5805,16 @@
       <c r="O65" t="n">
         <v>2</v>
       </c>
-      <c r="P65" t="b">
-        <v>1</v>
+      <c r="P65" t="n">
+        <v>283</v>
       </c>
       <c r="Q65" t="n">
         <v>3.384000000000015</v>
       </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S65" t="n">
-        <v>0</v>
-      </c>
+      <c r="R65" t="b">
+        <v>1</v>
+      </c>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5571,10 +5823,18 @@
       <c r="U65" t="n">
         <v>0</v>
       </c>
-      <c r="V65" t="n">
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
         <v>283</v>
       </c>
-      <c r="W65" t="n">
+      <c r="Y65" t="n">
         <v>3.384000000000015</v>
       </c>
     </row>
@@ -5628,32 +5888,32 @@
       <c r="O66" t="n">
         <v>2</v>
       </c>
-      <c r="P66" t="b">
-        <v>1</v>
+      <c r="P66" t="n">
+        <v>-1</v>
       </c>
       <c r="Q66" t="n">
         <v>5.652799999999985</v>
       </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
+      <c r="R66" t="b">
+        <v>1</v>
+      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="U66" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" t="n">
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="n">
         <v>292</v>
       </c>
-      <c r="W66" t="n">
+      <c r="Y66" t="n">
         <v>5.652799999999985</v>
       </c>
     </row>
@@ -5707,20 +5967,16 @@
       <c r="O67" t="n">
         <v>2</v>
       </c>
-      <c r="P67" t="b">
-        <v>1</v>
+      <c r="P67" t="n">
+        <v>297</v>
       </c>
       <c r="Q67" t="n">
         <v>2.725300000000004</v>
       </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S67" t="n">
-        <v>0</v>
-      </c>
+      <c r="R67" t="b">
+        <v>1</v>
+      </c>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
           <t>[]</t>
@@ -5729,10 +5985,18 @@
       <c r="U67" t="n">
         <v>0</v>
       </c>
-      <c r="V67" t="n">
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
         <v>297</v>
       </c>
-      <c r="W67" t="n">
+      <c r="Y67" t="n">
         <v>2.725300000000004</v>
       </c>
     </row>
@@ -5786,32 +6050,32 @@
       <c r="O68" t="n">
         <v>2</v>
       </c>
-      <c r="P68" t="b">
-        <v>1</v>
+      <c r="P68" t="n">
+        <v>-1</v>
       </c>
       <c r="Q68" t="n">
         <v>4.0291</v>
       </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S68" t="n">
-        <v>0</v>
-      </c>
+      <c r="R68" t="b">
+        <v>1</v>
+      </c>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="U68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" t="n">
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="n">
         <v>301</v>
       </c>
-      <c r="W68" t="n">
+      <c r="Y68" t="n">
         <v>4.0291</v>
       </c>
     </row>
@@ -5863,33 +6127,37 @@
         <v>324</v>
       </c>
       <c r="O69" t="inlineStr"/>
-      <c r="P69" t="b">
-        <v>1</v>
+      <c r="P69" t="n">
+        <v>-1</v>
       </c>
       <c r="Q69" t="n">
         <v>5.195899999999995</v>
       </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>[327]</t>
-        </is>
-      </c>
-      <c r="S69" t="n">
-        <v>1</v>
-      </c>
+      <c r="R69" t="b">
+        <v>1</v>
+      </c>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[312, 313, 314, 320]</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
-      </c>
-      <c r="V69" t="n">
-        <v>306</v>
+        <v>4</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>[316, 327]</t>
+        </is>
       </c>
       <c r="W69" t="n">
-        <v>3.403399999999976</v>
+        <v>2</v>
+      </c>
+      <c r="X69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>69.7124</v>
       </c>
     </row>
     <row r="70">
@@ -5942,32 +6210,36 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" t="b">
-        <v>1</v>
+      <c r="P70" t="n">
+        <v>307</v>
       </c>
       <c r="Q70" t="n">
         <v>4.630200000000002</v>
       </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S70" t="n">
-        <v>0</v>
-      </c>
+      <c r="R70" t="b">
+        <v>1</v>
+      </c>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
         <is>
-          <t>[324]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1</v>
-      </c>
-      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>[319, 322]</t>
+        </is>
+      </c>
+      <c r="W70" t="n">
+        <v>2</v>
+      </c>
+      <c r="X70" t="n">
         <v>307</v>
       </c>
-      <c r="W70" t="n">
+      <c r="Y70" t="n">
         <v>4.630200000000002</v>
       </c>
     </row>
@@ -6021,20 +6293,16 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" t="b">
-        <v>1</v>
+      <c r="P71" t="n">
+        <v>309</v>
       </c>
       <c r="Q71" t="n">
         <v>2.232100000000003</v>
       </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
+      <c r="R71" t="b">
+        <v>1</v>
+      </c>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6043,10 +6311,18 @@
       <c r="U71" t="n">
         <v>0</v>
       </c>
-      <c r="V71" t="n">
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
         <v>309</v>
       </c>
-      <c r="W71" t="n">
+      <c r="Y71" t="n">
         <v>2.232100000000003</v>
       </c>
     </row>
@@ -6100,33 +6376,37 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" t="b">
-        <v>1</v>
+      <c r="P72" t="n">
+        <v>346</v>
       </c>
       <c r="Q72" t="n">
         <v>4.536299999999983</v>
       </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
+      <c r="R72" t="b">
+        <v>1</v>
+      </c>
+      <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>[353, 356]</t>
+          <t>[325, 333]</t>
         </is>
       </c>
       <c r="U72" t="n">
         <v>2</v>
       </c>
-      <c r="V72" t="n">
-        <v>346</v>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>[343, 353]</t>
+        </is>
       </c>
       <c r="W72" t="n">
-        <v>4.536299999999983</v>
+        <v>2</v>
+      </c>
+      <c r="X72" t="n">
+        <v>325</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.067099999999982</v>
       </c>
     </row>
     <row r="73">
@@ -6179,20 +6459,16 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" t="b">
-        <v>1</v>
+      <c r="P73" t="n">
+        <v>347</v>
       </c>
       <c r="Q73" t="n">
         <v>1.97120000000001</v>
       </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
+      <c r="R73" t="b">
+        <v>1</v>
+      </c>
+      <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6201,10 +6477,18 @@
       <c r="U73" t="n">
         <v>0</v>
       </c>
-      <c r="V73" t="n">
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
         <v>347</v>
       </c>
-      <c r="W73" t="n">
+      <c r="Y73" t="n">
         <v>1.97120000000001</v>
       </c>
     </row>
@@ -6258,20 +6542,16 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" t="b">
-        <v>1</v>
+      <c r="P74" t="n">
+        <v>374</v>
       </c>
       <c r="Q74" t="n">
         <v>3.244100000000003</v>
       </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S74" t="n">
-        <v>0</v>
-      </c>
+      <c r="R74" t="b">
+        <v>1</v>
+      </c>
+      <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6280,10 +6560,18 @@
       <c r="U74" t="n">
         <v>0</v>
       </c>
-      <c r="V74" t="n">
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
         <v>374</v>
       </c>
-      <c r="W74" t="n">
+      <c r="Y74" t="n">
         <v>3.244100000000003</v>
       </c>
     </row>
@@ -6337,20 +6625,16 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" t="b">
-        <v>1</v>
+      <c r="P75" t="n">
+        <v>379</v>
       </c>
       <c r="Q75" t="n">
         <v>2.27940000000001</v>
       </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S75" t="n">
-        <v>0</v>
-      </c>
+      <c r="R75" t="b">
+        <v>1</v>
+      </c>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6359,10 +6643,18 @@
       <c r="U75" t="n">
         <v>0</v>
       </c>
-      <c r="V75" t="n">
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
         <v>379</v>
       </c>
-      <c r="W75" t="n">
+      <c r="Y75" t="n">
         <v>2.27940000000001</v>
       </c>
     </row>
@@ -6416,33 +6708,37 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" t="b">
-        <v>1</v>
+      <c r="P76" t="n">
+        <v>399</v>
       </c>
       <c r="Q76" t="n">
         <v>4.453499999999963</v>
       </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S76" t="n">
-        <v>0</v>
-      </c>
+      <c r="R76" t="b">
+        <v>1</v>
+      </c>
+      <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[389, 395]</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
-      </c>
-      <c r="V76" t="n">
-        <v>399</v>
+        <v>2</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W76" t="n">
-        <v>4.453499999999963</v>
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>395</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.184599999999989</v>
       </c>
     </row>
     <row r="77">
@@ -6495,20 +6791,16 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" t="b">
-        <v>1</v>
+      <c r="P77" t="n">
+        <v>406</v>
       </c>
       <c r="Q77" t="n">
         <v>2.522400000000005</v>
       </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
+      <c r="R77" t="b">
+        <v>1</v>
+      </c>
+      <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6517,10 +6809,18 @@
       <c r="U77" t="n">
         <v>0</v>
       </c>
-      <c r="V77" t="n">
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
         <v>406</v>
       </c>
-      <c r="W77" t="n">
+      <c r="Y77" t="n">
         <v>2.522400000000005</v>
       </c>
     </row>
@@ -6574,20 +6874,16 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" t="b">
-        <v>1</v>
+      <c r="P78" t="n">
+        <v>413</v>
       </c>
       <c r="Q78" t="n">
         <v>3.622299999999996</v>
       </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
+      <c r="R78" t="b">
+        <v>1</v>
+      </c>
+      <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6596,10 +6892,18 @@
       <c r="U78" t="n">
         <v>0</v>
       </c>
-      <c r="V78" t="n">
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
         <v>413</v>
       </c>
-      <c r="W78" t="n">
+      <c r="Y78" t="n">
         <v>3.622299999999996</v>
       </c>
     </row>
@@ -6653,33 +6957,37 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" t="b">
-        <v>1</v>
+      <c r="P79" t="n">
+        <v>418</v>
       </c>
       <c r="Q79" t="n">
         <v>3.588900000000024</v>
       </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
+      <c r="R79" t="b">
+        <v>1</v>
+      </c>
+      <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[415]</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
-        <v>418</v>
+        <v>1</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W79" t="n">
-        <v>3.588900000000024</v>
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>415</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.820400000000006</v>
       </c>
     </row>
     <row r="80">
@@ -6732,20 +7040,16 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" t="b">
-        <v>1</v>
+      <c r="P80" t="n">
+        <v>420</v>
       </c>
       <c r="Q80" t="n">
         <v>1.45999999999998</v>
       </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S80" t="n">
-        <v>0</v>
-      </c>
+      <c r="R80" t="b">
+        <v>1</v>
+      </c>
+      <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6754,10 +7058,18 @@
       <c r="U80" t="n">
         <v>0</v>
       </c>
-      <c r="V80" t="n">
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
         <v>420</v>
       </c>
-      <c r="W80" t="n">
+      <c r="Y80" t="n">
         <v>1.45999999999998</v>
       </c>
     </row>
@@ -6811,32 +7123,36 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" t="b">
-        <v>1</v>
+      <c r="P81" t="n">
+        <v>430</v>
       </c>
       <c r="Q81" t="n">
         <v>3.963599999999985</v>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="R81" t="b">
+        <v>1</v>
+      </c>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
         <is>
           <t>[426]</t>
         </is>
       </c>
-      <c r="S81" t="n">
-        <v>1</v>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="U81" t="n">
-        <v>0</v>
-      </c>
-      <c r="V81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>[424]</t>
+        </is>
+      </c>
+      <c r="W81" t="n">
+        <v>1</v>
+      </c>
+      <c r="X81" t="n">
         <v>430</v>
       </c>
-      <c r="W81" t="n">
+      <c r="Y81" t="n">
         <v>2.168900000000008</v>
       </c>
     </row>
@@ -6890,20 +7206,16 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" t="b">
-        <v>1</v>
+      <c r="P82" t="n">
+        <v>437</v>
       </c>
       <c r="Q82" t="n">
         <v>2.3322</v>
       </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S82" t="n">
-        <v>0</v>
-      </c>
+      <c r="R82" t="b">
+        <v>1</v>
+      </c>
+      <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6912,10 +7224,18 @@
       <c r="U82" t="n">
         <v>0</v>
       </c>
-      <c r="V82" t="n">
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
         <v>437</v>
       </c>
-      <c r="W82" t="n">
+      <c r="Y82" t="n">
         <v>2.3322</v>
       </c>
     </row>
@@ -6969,32 +7289,36 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" t="b">
-        <v>1</v>
+      <c r="P83" t="n">
+        <v>454</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.697900000000004</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S83" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="R83" t="b">
+        <v>0</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>@Troca de faixa</t>
+        </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="U83" t="n">
-        <v>0</v>
-      </c>
-      <c r="V83" t="n">
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="n">
         <v>454</v>
       </c>
-      <c r="W83" t="n">
+      <c r="Y83" t="n">
         <v>2.697900000000004</v>
       </c>
     </row>
@@ -7048,28 +7372,36 @@
       <c r="O84" t="n">
         <v>2</v>
       </c>
-      <c r="P84" t="b">
-        <v>0</v>
+      <c r="P84" t="n">
+        <v>455</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.736899999999991</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="R84" t="b">
+        <v>0</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>@Problema com o líder</t>
+        </is>
+      </c>
       <c r="T84" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="n">
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="n">
         <v>460</v>
       </c>
-      <c r="W84" t="n">
+      <c r="Y84" t="n">
         <v>2.736899999999991</v>
       </c>
     </row>
@@ -7123,32 +7455,32 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" t="b">
-        <v>1</v>
+      <c r="P85" t="n">
+        <v>-1</v>
       </c>
       <c r="Q85" t="n">
         <v>9.242399999999975</v>
       </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S85" t="n">
-        <v>0</v>
-      </c>
+      <c r="R85" t="b">
+        <v>1</v>
+      </c>
+      <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="U85" t="n">
-        <v>0</v>
-      </c>
-      <c r="V85" t="n">
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="n">
         <v>478</v>
       </c>
-      <c r="W85" t="n">
+      <c r="Y85" t="n">
         <v>9.242399999999975</v>
       </c>
     </row>
@@ -7202,32 +7534,32 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86" t="b">
-        <v>1</v>
+      <c r="P86" t="n">
+        <v>-1</v>
       </c>
       <c r="Q86" t="n">
         <v>4.519900000000007</v>
       </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S86" t="n">
-        <v>0</v>
-      </c>
+      <c r="R86" t="b">
+        <v>1</v>
+      </c>
+      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="U86" t="n">
-        <v>0</v>
-      </c>
-      <c r="V86" t="n">
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="n">
         <v>481</v>
       </c>
-      <c r="W86" t="n">
+      <c r="Y86" t="n">
         <v>4.519900000000007</v>
       </c>
     </row>
@@ -7281,20 +7613,16 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
-      <c r="P87" t="b">
-        <v>1</v>
+      <c r="P87" t="n">
+        <v>486</v>
       </c>
       <c r="Q87" t="n">
         <v>2.548799999999972</v>
       </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S87" t="n">
-        <v>0</v>
-      </c>
+      <c r="R87" t="b">
+        <v>1</v>
+      </c>
+      <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
           <t>[]</t>
@@ -7303,10 +7631,18 @@
       <c r="U87" t="n">
         <v>0</v>
       </c>
-      <c r="V87" t="n">
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
         <v>486</v>
       </c>
-      <c r="W87" t="n">
+      <c r="Y87" t="n">
         <v>2.548799999999972</v>
       </c>
     </row>
@@ -7360,20 +7696,16 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" t="b">
-        <v>1</v>
+      <c r="P88" t="n">
+        <v>489</v>
       </c>
       <c r="Q88" t="n">
         <v>2.324000000000012</v>
       </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S88" t="n">
-        <v>0</v>
-      </c>
+      <c r="R88" t="b">
+        <v>1</v>
+      </c>
+      <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
           <t>[]</t>
@@ -7382,10 +7714,18 @@
       <c r="U88" t="n">
         <v>0</v>
       </c>
-      <c r="V88" t="n">
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
         <v>489</v>
       </c>
-      <c r="W88" t="n">
+      <c r="Y88" t="n">
         <v>2.324000000000012</v>
       </c>
     </row>
@@ -7396,16 +7736,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>11721</v>
+        <v>9720</v>
       </c>
       <c r="C89" t="n">
-        <v>391.0911</v>
+        <v>324.3243</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>502</v>
+        <v>308</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -7413,59 +7753,61 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7979797979797958</v>
+        <v>26.53535353535353</v>
       </c>
       <c r="H89" t="n">
-        <v>14641</v>
+        <v>9871</v>
       </c>
       <c r="I89" t="n">
-        <v>488.5219</v>
+        <v>329.3627</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>489</v>
+        <v>-1</v>
       </c>
       <c r="M89" t="n">
-        <v>11609</v>
+        <v>9720</v>
       </c>
       <c r="N89" t="n">
-        <v>386.97</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="n">
+        <v>-1</v>
       </c>
       <c r="Q89" t="n">
-        <v>101.5519</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>[522]</t>
-        </is>
-      </c>
-      <c r="S89" t="n">
-        <v>1</v>
-      </c>
+        <v>5.362700000000018</v>
+      </c>
+      <c r="R89" t="b">
+        <v>1</v>
+      </c>
+      <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t>[505]</t>
+          <t>[310, 315, 316]</t>
         </is>
       </c>
       <c r="U89" t="n">
-        <v>1</v>
-      </c>
-      <c r="V89" t="n">
-        <v>502</v>
+        <v>3</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>[312, 314]</t>
+        </is>
       </c>
       <c r="W89" t="n">
-        <v>76.47650000000004</v>
+        <v>2</v>
+      </c>
+      <c r="X89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>78.95500000000001</v>
       </c>
     </row>
     <row r="90">
@@ -7475,16 +7817,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>12178</v>
+        <v>9720</v>
       </c>
       <c r="C90" t="n">
-        <v>406.3397</v>
+        <v>324.3243</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>528</v>
+        <v>311</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -7492,59 +7834,63 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.131313131313128</v>
+        <v>19.29292929292929</v>
       </c>
       <c r="H90" t="n">
-        <v>14720</v>
+        <v>9994</v>
       </c>
       <c r="I90" t="n">
-        <v>491.1578</v>
+        <v>333.4668</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>502</v>
+        <v>308</v>
       </c>
       <c r="M90" t="n">
-        <v>14641</v>
+        <v>9871</v>
       </c>
       <c r="N90" t="n">
-        <v>488.03</v>
+        <v>329.03</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P90" t="n">
+        <v>311</v>
       </c>
       <c r="Q90" t="n">
-        <v>3.127800000000036</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S90" t="n">
-        <v>0</v>
-      </c>
+        <v>4.436800000000005</v>
+      </c>
+      <c r="R90" t="b">
+        <v>1</v>
+      </c>
+      <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>[533, 555]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U90" t="n">
-        <v>2</v>
-      </c>
-      <c r="V90" t="n">
-        <v>528</v>
+        <v>0</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>[322, 319]</t>
+        </is>
       </c>
       <c r="W90" t="n">
-        <v>3.127800000000036</v>
+        <v>2</v>
+      </c>
+      <c r="X90" t="n">
+        <v>311</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>4.436800000000005</v>
       </c>
     </row>
     <row r="91">
@@ -7554,16 +7900,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>12650</v>
+        <v>9720</v>
       </c>
       <c r="C91" t="n">
-        <v>422.0888</v>
+        <v>324.3243</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>537</v>
+        <v>337</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -7571,59 +7917,63 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6464646464646435</v>
+        <v>10.21212121212121</v>
       </c>
       <c r="H91" t="n">
-        <v>14806</v>
+        <v>10124</v>
       </c>
       <c r="I91" t="n">
-        <v>494.0274</v>
+        <v>337.8045</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="L91" t="n">
-        <v>528</v>
+        <v>311</v>
       </c>
       <c r="M91" t="n">
-        <v>14720</v>
+        <v>9994</v>
       </c>
       <c r="N91" t="n">
-        <v>490.67</v>
+        <v>333.13</v>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P91" t="n">
+        <v>337</v>
       </c>
       <c r="Q91" t="n">
-        <v>3.357399999999984</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S91" t="n">
-        <v>0</v>
-      </c>
+        <v>4.674500000000023</v>
+      </c>
+      <c r="R91" t="b">
+        <v>1</v>
+      </c>
+      <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>[539]</t>
+          <t>[323]</t>
         </is>
       </c>
       <c r="U91" t="n">
         <v>1</v>
       </c>
-      <c r="V91" t="n">
-        <v>537</v>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>[336, 339]</t>
+        </is>
       </c>
       <c r="W91" t="n">
-        <v>3.357399999999984</v>
+        <v>2</v>
+      </c>
+      <c r="X91" t="n">
+        <v>323</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.472300000000018</v>
       </c>
     </row>
     <row r="92">
@@ -7633,16 +7983,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>12941</v>
+        <v>9720</v>
       </c>
       <c r="C92" t="n">
-        <v>431.7985</v>
+        <v>324.3243</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7650,59 +8000,63 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.252525252525249</v>
+        <v>3.252525252525249</v>
       </c>
       <c r="H92" t="n">
-        <v>14919</v>
+        <v>10190</v>
       </c>
       <c r="I92" t="n">
-        <v>497.7978</v>
+        <v>340.0067</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L92" t="n">
-        <v>537</v>
+        <v>337</v>
       </c>
       <c r="M92" t="n">
-        <v>14806</v>
+        <v>10124</v>
       </c>
       <c r="N92" t="n">
-        <v>493.53</v>
+        <v>337.47</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P92" t="n">
+        <v>340</v>
       </c>
       <c r="Q92" t="n">
-        <v>4.267800000000022</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S92" t="n">
-        <v>0</v>
-      </c>
+        <v>2.536699999999996</v>
+      </c>
+      <c r="R92" t="b">
+        <v>1</v>
+      </c>
+      <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>[548, 549]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U92" t="n">
-        <v>2</v>
-      </c>
-      <c r="V92" t="n">
-        <v>540</v>
+        <v>0</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>[356]</t>
+        </is>
       </c>
       <c r="W92" t="n">
-        <v>4.267800000000022</v>
+        <v>1</v>
+      </c>
+      <c r="X92" t="n">
+        <v>340</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.536699999999996</v>
       </c>
     </row>
     <row r="93">
@@ -7712,16 +8066,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>13485</v>
+        <v>9932</v>
       </c>
       <c r="C93" t="n">
-        <v>449.9499</v>
+        <v>331.3981</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>552</v>
+        <v>363</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -7729,46 +8083,42 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.313131313131308</v>
+        <v>0.3131313131313078</v>
       </c>
       <c r="H93" t="n">
-        <v>15038</v>
+        <v>10270</v>
       </c>
       <c r="I93" t="n">
-        <v>501.7684</v>
+        <v>342.676</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L93" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="M93" t="n">
-        <v>14919</v>
+        <v>10190</v>
       </c>
       <c r="N93" t="n">
-        <v>497.3</v>
+        <v>339.67</v>
       </c>
       <c r="O93" t="n">
-        <v>1</v>
-      </c>
-      <c r="P93" t="b">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P93" t="n">
+        <v>363</v>
       </c>
       <c r="Q93" t="n">
-        <v>4.468399999999974</v>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S93" t="n">
-        <v>0</v>
-      </c>
+        <v>3.005999999999972</v>
+      </c>
+      <c r="R93" t="b">
+        <v>1</v>
+      </c>
+      <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
           <t>[]</t>
@@ -7777,11 +8127,19 @@
       <c r="U93" t="n">
         <v>0</v>
       </c>
-      <c r="V93" t="n">
-        <v>552</v>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W93" t="n">
-        <v>4.468399999999974</v>
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>363</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>3.005999999999972</v>
       </c>
     </row>
     <row r="94">
@@ -7791,16 +8149,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>9720</v>
+        <v>10110</v>
       </c>
       <c r="C94" t="n">
-        <v>324.3243</v>
+        <v>337.3373</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -7808,57 +8166,63 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>26.53535353535353</v>
+        <v>0.2828282828282802</v>
       </c>
       <c r="H94" t="n">
-        <v>9871</v>
+        <v>10325</v>
       </c>
       <c r="I94" t="n">
-        <v>329.3627</v>
+        <v>344.5112</v>
       </c>
       <c r="J94" t="n">
         <v>2</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L94" t="n">
-        <v>-1</v>
+        <v>363</v>
       </c>
       <c r="M94" t="n">
-        <v>9720</v>
+        <v>10270</v>
       </c>
       <c r="N94" t="n">
-        <v>324</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="b">
-        <v>1</v>
+        <v>342.33</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2</v>
+      </c>
+      <c r="P94" t="n">
+        <v>375</v>
       </c>
       <c r="Q94" t="n">
-        <v>5.362700000000018</v>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S94" t="n">
-        <v>0</v>
-      </c>
+        <v>2.18119999999999</v>
+      </c>
+      <c r="R94" t="b">
+        <v>1</v>
+      </c>
+      <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>[312]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U94" t="n">
-        <v>1</v>
-      </c>
-      <c r="V94" t="n">
-        <v>308</v>
+        <v>0</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W94" t="n">
-        <v>5.362700000000018</v>
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>375</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.18119999999999</v>
       </c>
     </row>
     <row r="95">
@@ -7868,16 +8232,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>9720</v>
+        <v>10186</v>
       </c>
       <c r="C95" t="n">
-        <v>324.3243</v>
+        <v>339.8732</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -7885,59 +8249,63 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>19.29292929292929</v>
+        <v>0.3131313131313114</v>
       </c>
       <c r="H95" t="n">
-        <v>9994</v>
+        <v>10382</v>
       </c>
       <c r="I95" t="n">
-        <v>333.4668</v>
+        <v>346.4131</v>
       </c>
       <c r="J95" t="n">
         <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L95" t="n">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="M95" t="n">
-        <v>9871</v>
+        <v>10325</v>
       </c>
       <c r="N95" t="n">
-        <v>329.03</v>
+        <v>344.17</v>
       </c>
       <c r="O95" t="n">
         <v>2</v>
       </c>
-      <c r="P95" t="b">
-        <v>1</v>
+      <c r="P95" t="n">
+        <v>381</v>
       </c>
       <c r="Q95" t="n">
-        <v>4.436800000000005</v>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S95" t="n">
-        <v>0</v>
-      </c>
+        <v>2.24309999999997</v>
+      </c>
+      <c r="R95" t="b">
+        <v>1</v>
+      </c>
+      <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>[319, 324]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U95" t="n">
-        <v>2</v>
-      </c>
-      <c r="V95" t="n">
-        <v>311</v>
+        <v>0</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W95" t="n">
-        <v>4.436800000000005</v>
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>381</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.24309999999997</v>
       </c>
     </row>
     <row r="96">
@@ -7947,76 +8315,80 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>9720</v>
+        <v>10282</v>
       </c>
       <c r="C96" t="n">
-        <v>324.3243</v>
+        <v>343.0764</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Caminhao</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>10.21212121212121</v>
+        <v>0.565656565656564</v>
       </c>
       <c r="H96" t="n">
-        <v>10124</v>
+        <v>10480</v>
       </c>
       <c r="I96" t="n">
-        <v>337.8045</v>
+        <v>349.683</v>
       </c>
       <c r="J96" t="n">
         <v>2</v>
       </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L96" t="n">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="M96" t="n">
-        <v>9994</v>
+        <v>10382</v>
       </c>
       <c r="N96" t="n">
-        <v>333.13</v>
+        <v>346.07</v>
       </c>
       <c r="O96" t="n">
         <v>2</v>
       </c>
-      <c r="P96" t="b">
-        <v>1</v>
+      <c r="P96" t="n">
+        <v>391</v>
       </c>
       <c r="Q96" t="n">
-        <v>4.674500000000023</v>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>[343]</t>
-        </is>
-      </c>
-      <c r="S96" t="n">
-        <v>1</v>
-      </c>
+        <v>3.613</v>
+      </c>
+      <c r="R96" t="b">
+        <v>1</v>
+      </c>
+      <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>[339]</t>
+          <t>[395]</t>
         </is>
       </c>
       <c r="U96" t="n">
         <v>1</v>
       </c>
-      <c r="V96" t="n">
-        <v>343</v>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W96" t="n">
-        <v>3.373199999999997</v>
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>395</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.844600000000014</v>
       </c>
     </row>
     <row r="97">
@@ -8026,16 +8398,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>9720</v>
+        <v>10358</v>
       </c>
       <c r="C97" t="n">
-        <v>324.3243</v>
+        <v>345.6123</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -8043,46 +8415,42 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.252525252525249</v>
+        <v>0.3737373737373701</v>
       </c>
       <c r="H97" t="n">
-        <v>10190</v>
+        <v>10540</v>
       </c>
       <c r="I97" t="n">
-        <v>340.0067</v>
+        <v>351.685</v>
       </c>
       <c r="J97" t="n">
         <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L97" t="n">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="M97" t="n">
-        <v>10124</v>
+        <v>10480</v>
       </c>
       <c r="N97" t="n">
-        <v>337.47</v>
+        <v>349.33</v>
       </c>
       <c r="O97" t="n">
         <v>2</v>
       </c>
-      <c r="P97" t="b">
-        <v>1</v>
+      <c r="P97" t="n">
+        <v>401</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.536699999999996</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S97" t="n">
-        <v>0</v>
-      </c>
+        <v>2.355000000000018</v>
+      </c>
+      <c r="R97" t="b">
+        <v>1</v>
+      </c>
+      <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8091,11 +8459,19 @@
       <c r="U97" t="n">
         <v>0</v>
       </c>
-      <c r="V97" t="n">
-        <v>340</v>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W97" t="n">
-        <v>2.536699999999996</v>
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>401</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2.355000000000018</v>
       </c>
     </row>
     <row r="98">
@@ -8105,16 +8481,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>9932</v>
+        <v>10478</v>
       </c>
       <c r="C98" t="n">
-        <v>331.3981</v>
+        <v>349.6163</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -8122,46 +8498,42 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.3131313131313078</v>
+        <v>0.7676767676767646</v>
       </c>
       <c r="H98" t="n">
-        <v>10270</v>
+        <v>10634</v>
       </c>
       <c r="I98" t="n">
-        <v>342.676</v>
+        <v>354.8215</v>
       </c>
       <c r="J98" t="n">
         <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L98" t="n">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="M98" t="n">
-        <v>10190</v>
+        <v>10540</v>
       </c>
       <c r="N98" t="n">
-        <v>339.67</v>
+        <v>351.33</v>
       </c>
       <c r="O98" t="n">
         <v>2</v>
       </c>
-      <c r="P98" t="b">
-        <v>1</v>
+      <c r="P98" t="n">
+        <v>411</v>
       </c>
       <c r="Q98" t="n">
-        <v>3.005999999999972</v>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S98" t="n">
-        <v>0</v>
-      </c>
+        <v>3.49150000000003</v>
+      </c>
+      <c r="R98" t="b">
+        <v>1</v>
+      </c>
+      <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8170,11 +8542,19 @@
       <c r="U98" t="n">
         <v>0</v>
       </c>
-      <c r="V98" t="n">
-        <v>363</v>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W98" t="n">
-        <v>3.005999999999972</v>
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>411</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>3.49150000000003</v>
       </c>
     </row>
     <row r="99">
@@ -8184,16 +8564,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>10110</v>
+        <v>10534</v>
       </c>
       <c r="C99" t="n">
-        <v>337.3373</v>
+        <v>351.4848</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -8201,46 +8581,42 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.2828282828282802</v>
+        <v>0.5252525252525224</v>
       </c>
       <c r="H99" t="n">
-        <v>10325</v>
+        <v>10688</v>
       </c>
       <c r="I99" t="n">
-        <v>344.5112</v>
+        <v>356.6233</v>
       </c>
       <c r="J99" t="n">
         <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L99" t="n">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="M99" t="n">
-        <v>10270</v>
+        <v>10634</v>
       </c>
       <c r="N99" t="n">
-        <v>342.33</v>
+        <v>354.47</v>
       </c>
       <c r="O99" t="n">
         <v>2</v>
       </c>
-      <c r="P99" t="b">
-        <v>1</v>
+      <c r="P99" t="n">
+        <v>414</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.18119999999999</v>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S99" t="n">
-        <v>0</v>
-      </c>
+        <v>2.153299999999945</v>
+      </c>
+      <c r="R99" t="b">
+        <v>1</v>
+      </c>
+      <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8249,11 +8625,19 @@
       <c r="U99" t="n">
         <v>0</v>
       </c>
-      <c r="V99" t="n">
-        <v>375</v>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W99" t="n">
-        <v>2.18119999999999</v>
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>414</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.153299999999945</v>
       </c>
     </row>
     <row r="100">
@@ -8263,63 +8647,59 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>10186</v>
+        <v>10640</v>
       </c>
       <c r="C100" t="n">
-        <v>339.8732</v>
+        <v>355.0217</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Van</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.3131313131313114</v>
+        <v>1.070707070707069</v>
       </c>
       <c r="H100" t="n">
-        <v>10382</v>
+        <v>10773</v>
       </c>
       <c r="I100" t="n">
-        <v>346.4131</v>
+        <v>359.4595</v>
       </c>
       <c r="J100" t="n">
         <v>2</v>
       </c>
       <c r="K100" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L100" t="n">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="M100" t="n">
-        <v>10325</v>
+        <v>10688</v>
       </c>
       <c r="N100" t="n">
-        <v>344.17</v>
+        <v>356.27</v>
       </c>
       <c r="O100" t="n">
         <v>2</v>
       </c>
-      <c r="P100" t="b">
-        <v>1</v>
+      <c r="P100" t="n">
+        <v>423</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.24309999999997</v>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S100" t="n">
-        <v>0</v>
-      </c>
+        <v>3.18950000000001</v>
+      </c>
+      <c r="R100" t="b">
+        <v>1</v>
+      </c>
+      <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8328,11 +8708,19 @@
       <c r="U100" t="n">
         <v>0</v>
       </c>
-      <c r="V100" t="n">
-        <v>381</v>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W100" t="n">
-        <v>2.24309999999997</v>
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>423</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>3.18950000000001</v>
       </c>
     </row>
     <row r="101">
@@ -8342,76 +8730,80 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>10282</v>
+        <v>10733</v>
       </c>
       <c r="C101" t="n">
-        <v>343.0764</v>
+        <v>358.1248</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Caminhao</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.565656565656564</v>
+        <v>0.9191919191919168</v>
       </c>
       <c r="H101" t="n">
-        <v>10480</v>
+        <v>10867</v>
       </c>
       <c r="I101" t="n">
-        <v>349.683</v>
+        <v>362.5959</v>
       </c>
       <c r="J101" t="n">
         <v>2</v>
       </c>
       <c r="K101" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L101" t="n">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="M101" t="n">
-        <v>10382</v>
+        <v>10773</v>
       </c>
       <c r="N101" t="n">
-        <v>346.07</v>
+        <v>359.1</v>
       </c>
       <c r="O101" t="n">
         <v>2</v>
       </c>
-      <c r="P101" t="b">
-        <v>1</v>
+      <c r="P101" t="n">
+        <v>428</v>
       </c>
       <c r="Q101" t="n">
-        <v>3.613</v>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S101" t="n">
-        <v>0</v>
-      </c>
+        <v>3.495899999999949</v>
+      </c>
+      <c r="R101" t="b">
+        <v>1</v>
+      </c>
+      <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[424, 425]</t>
         </is>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
-      </c>
-      <c r="V101" t="n">
-        <v>391</v>
+        <v>2</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W101" t="n">
-        <v>3.613</v>
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>428</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.601599999999962</v>
       </c>
     </row>
     <row r="102">
@@ -8421,16 +8813,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>10358</v>
+        <v>10835</v>
       </c>
       <c r="C102" t="n">
-        <v>345.6123</v>
+        <v>361.5282</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -8438,46 +8830,42 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.3737373737373701</v>
+        <v>1.828282828282824</v>
       </c>
       <c r="H102" t="n">
-        <v>10540</v>
+        <v>10922</v>
       </c>
       <c r="I102" t="n">
-        <v>351.685</v>
+        <v>364.4311</v>
       </c>
       <c r="J102" t="n">
         <v>2</v>
       </c>
       <c r="K102" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L102" t="n">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="M102" t="n">
-        <v>10480</v>
+        <v>10867</v>
       </c>
       <c r="N102" t="n">
-        <v>349.33</v>
+        <v>362.23</v>
       </c>
       <c r="O102" t="n">
         <v>2</v>
       </c>
-      <c r="P102" t="b">
-        <v>1</v>
+      <c r="P102" t="n">
+        <v>442</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.355000000000018</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S102" t="n">
-        <v>0</v>
-      </c>
+        <v>2.201099999999997</v>
+      </c>
+      <c r="R102" t="b">
+        <v>1</v>
+      </c>
+      <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8486,11 +8874,19 @@
       <c r="U102" t="n">
         <v>0</v>
       </c>
-      <c r="V102" t="n">
-        <v>401</v>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W102" t="n">
-        <v>2.355000000000018</v>
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>442</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.201099999999997</v>
       </c>
     </row>
     <row r="103">
@@ -8500,16 +8896,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>10478</v>
+        <v>10943</v>
       </c>
       <c r="C103" t="n">
-        <v>349.6163</v>
+        <v>365.1318</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -8517,59 +8913,59 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7676767676767646</v>
+        <v>1.19191919191919</v>
       </c>
       <c r="H103" t="n">
-        <v>10634</v>
+        <v>11074</v>
       </c>
       <c r="I103" t="n">
-        <v>354.8215</v>
+        <v>369.5028</v>
       </c>
       <c r="J103" t="n">
         <v>2</v>
       </c>
       <c r="K103" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L103" t="n">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="M103" t="n">
-        <v>10540</v>
+        <v>10922</v>
       </c>
       <c r="N103" t="n">
-        <v>351.33</v>
+        <v>364.07</v>
       </c>
       <c r="O103" t="n">
         <v>2</v>
       </c>
-      <c r="P103" t="b">
-        <v>1</v>
+      <c r="P103" t="n">
+        <v>-1</v>
       </c>
       <c r="Q103" t="n">
-        <v>3.49150000000003</v>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S103" t="n">
-        <v>0</v>
-      </c>
+        <v>5.432799999999986</v>
+      </c>
+      <c r="R103" t="b">
+        <v>1</v>
+      </c>
+      <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="U103" t="n">
-        <v>0</v>
-      </c>
-      <c r="V103" t="n">
-        <v>411</v>
-      </c>
-      <c r="W103" t="n">
-        <v>3.49150000000003</v>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="n">
+        <v>455</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>5.432799999999986</v>
       </c>
     </row>
     <row r="104">
@@ -8579,16 +8975,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>10534</v>
+        <v>10991</v>
       </c>
       <c r="C104" t="n">
-        <v>351.4848</v>
+        <v>366.7334</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -8596,46 +8992,42 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5252525252525224</v>
+        <v>1.030303030303028</v>
       </c>
       <c r="H104" t="n">
-        <v>10688</v>
+        <v>11116</v>
       </c>
       <c r="I104" t="n">
-        <v>356.6233</v>
+        <v>370.9042</v>
       </c>
       <c r="J104" t="n">
         <v>2</v>
       </c>
       <c r="K104" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L104" t="n">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="M104" t="n">
-        <v>10634</v>
+        <v>11074</v>
       </c>
       <c r="N104" t="n">
-        <v>354.47</v>
+        <v>369.13</v>
       </c>
       <c r="O104" t="n">
         <v>2</v>
       </c>
-      <c r="P104" t="b">
-        <v>1</v>
+      <c r="P104" t="n">
+        <v>458</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.153299999999945</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S104" t="n">
-        <v>0</v>
-      </c>
+        <v>1.774200000000008</v>
+      </c>
+      <c r="R104" t="b">
+        <v>1</v>
+      </c>
+      <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8644,11 +9036,19 @@
       <c r="U104" t="n">
         <v>0</v>
       </c>
-      <c r="V104" t="n">
-        <v>414</v>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W104" t="n">
-        <v>2.153299999999945</v>
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>458</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.774200000000008</v>
       </c>
     </row>
     <row r="105">
@@ -8658,63 +9058,59 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>10640</v>
+        <v>11063</v>
       </c>
       <c r="C105" t="n">
-        <v>355.0217</v>
+        <v>369.1358</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Van</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.070707070707069</v>
+        <v>0.6161616161616159</v>
       </c>
       <c r="H105" t="n">
-        <v>10773</v>
+        <v>11161</v>
       </c>
       <c r="I105" t="n">
-        <v>359.4595</v>
+        <v>372.4057</v>
       </c>
       <c r="J105" t="n">
         <v>2</v>
       </c>
       <c r="K105" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L105" t="n">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="M105" t="n">
-        <v>10688</v>
+        <v>11116</v>
       </c>
       <c r="N105" t="n">
-        <v>356.27</v>
+        <v>370.53</v>
       </c>
       <c r="O105" t="n">
         <v>2</v>
       </c>
-      <c r="P105" t="b">
-        <v>1</v>
+      <c r="P105" t="n">
+        <v>465</v>
       </c>
       <c r="Q105" t="n">
-        <v>3.18950000000001</v>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S105" t="n">
-        <v>0</v>
-      </c>
+        <v>1.875700000000052</v>
+      </c>
+      <c r="R105" t="b">
+        <v>1</v>
+      </c>
+      <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8723,30 +9119,38 @@
       <c r="U105" t="n">
         <v>0</v>
       </c>
-      <c r="V105" t="n">
-        <v>423</v>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W105" t="n">
-        <v>3.18950000000001</v>
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>465</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.875700000000052</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>10733</v>
+        <v>14520</v>
       </c>
       <c r="C106" t="n">
-        <v>358.1248</v>
+        <v>484.4845</v>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -8754,78 +9158,80 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9191919191919168</v>
+        <v>26.81818181818181</v>
       </c>
       <c r="H106" t="n">
-        <v>10867</v>
+        <v>14641</v>
       </c>
       <c r="I106" t="n">
-        <v>362.5959</v>
+        <v>488.5219</v>
       </c>
       <c r="J106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>423</v>
+        <v>-1</v>
       </c>
       <c r="M106" t="n">
-        <v>10773</v>
+        <v>14520</v>
       </c>
       <c r="N106" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="O106" t="n">
-        <v>2</v>
-      </c>
-      <c r="P106" t="b">
-        <v>1</v>
+        <v>484</v>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="n">
+        <v>-1</v>
       </c>
       <c r="Q106" t="n">
-        <v>3.495899999999949</v>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S106" t="n">
-        <v>0</v>
-      </c>
+        <v>4.521900000000016</v>
+      </c>
+      <c r="R106" t="b">
+        <v>1</v>
+      </c>
+      <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr">
         <is>
-          <t>[426]</t>
+          <t>[505, 509, 519, 522, 547]</t>
         </is>
       </c>
       <c r="U106" t="n">
-        <v>1</v>
-      </c>
-      <c r="V106" t="n">
-        <v>428</v>
+        <v>5</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W106" t="n">
-        <v>3.495899999999949</v>
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>509</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>47.08040000000005</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10835</v>
+        <v>14520</v>
       </c>
       <c r="C107" t="n">
-        <v>361.5282</v>
+        <v>484.4845</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>442</v>
+        <v>528</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -8833,78 +9239,82 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.828282828282824</v>
+        <v>21.67676767676767</v>
       </c>
       <c r="H107" t="n">
-        <v>10922</v>
+        <v>14720</v>
       </c>
       <c r="I107" t="n">
-        <v>364.4311</v>
+        <v>491.1578</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L107" t="n">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="M107" t="n">
-        <v>10867</v>
+        <v>14641</v>
       </c>
       <c r="N107" t="n">
-        <v>362.23</v>
+        <v>488.03</v>
       </c>
       <c r="O107" t="n">
-        <v>2</v>
-      </c>
-      <c r="P107" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>528</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.201099999999997</v>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S107" t="n">
-        <v>0</v>
-      </c>
+        <v>3.127800000000036</v>
+      </c>
+      <c r="R107" t="b">
+        <v>1</v>
+      </c>
+      <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[533]</t>
         </is>
       </c>
       <c r="U107" t="n">
-        <v>0</v>
-      </c>
-      <c r="V107" t="n">
-        <v>442</v>
+        <v>1</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W107" t="n">
-        <v>2.201099999999997</v>
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>533</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>2.460500000000025</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>10943</v>
+        <v>14520</v>
       </c>
       <c r="C108" t="n">
-        <v>365.1318</v>
+        <v>484.4845</v>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>455</v>
+        <v>537</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -8912,46 +9322,42 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.19191919191919</v>
+        <v>14.98989898989899</v>
       </c>
       <c r="H108" t="n">
-        <v>11074</v>
+        <v>14806</v>
       </c>
       <c r="I108" t="n">
-        <v>369.5028</v>
+        <v>494.0274</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L108" t="n">
-        <v>442</v>
+        <v>528</v>
       </c>
       <c r="M108" t="n">
-        <v>10922</v>
+        <v>14720</v>
       </c>
       <c r="N108" t="n">
-        <v>364.07</v>
+        <v>490.67</v>
       </c>
       <c r="O108" t="n">
-        <v>2</v>
-      </c>
-      <c r="P108" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P108" t="n">
+        <v>537</v>
       </c>
       <c r="Q108" t="n">
-        <v>5.432799999999986</v>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S108" t="n">
-        <v>0</v>
-      </c>
+        <v>3.357399999999984</v>
+      </c>
+      <c r="R108" t="b">
+        <v>1</v>
+      </c>
+      <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8960,30 +9366,38 @@
       <c r="U108" t="n">
         <v>0</v>
       </c>
-      <c r="V108" t="n">
-        <v>455</v>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>[539]</t>
+        </is>
       </c>
       <c r="W108" t="n">
-        <v>5.432799999999986</v>
+        <v>1</v>
+      </c>
+      <c r="X108" t="n">
+        <v>537</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>3.357399999999984</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>10991</v>
+        <v>14520</v>
       </c>
       <c r="C109" t="n">
-        <v>366.7334</v>
+        <v>484.4845</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>458</v>
+        <v>540</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -8991,46 +9405,42 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.030303030303028</v>
+        <v>8.626262626262621</v>
       </c>
       <c r="H109" t="n">
-        <v>11116</v>
+        <v>14919</v>
       </c>
       <c r="I109" t="n">
-        <v>370.9042</v>
+        <v>497.7978</v>
       </c>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L109" t="n">
-        <v>455</v>
+        <v>537</v>
       </c>
       <c r="M109" t="n">
-        <v>11074</v>
+        <v>14806</v>
       </c>
       <c r="N109" t="n">
-        <v>369.13</v>
+        <v>493.53</v>
       </c>
       <c r="O109" t="n">
-        <v>2</v>
-      </c>
-      <c r="P109" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>540</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.774200000000008</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S109" t="n">
-        <v>0</v>
-      </c>
+        <v>4.267800000000022</v>
+      </c>
+      <c r="R109" t="b">
+        <v>1</v>
+      </c>
+      <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr">
         <is>
           <t>[]</t>
@@ -9039,30 +9449,38 @@
       <c r="U109" t="n">
         <v>0</v>
       </c>
-      <c r="V109" t="n">
-        <v>458</v>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>[548]</t>
+        </is>
       </c>
       <c r="W109" t="n">
-        <v>1.774200000000008</v>
+        <v>1</v>
+      </c>
+      <c r="X109" t="n">
+        <v>540</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>4.267800000000022</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>11063</v>
+        <v>14520</v>
       </c>
       <c r="C110" t="n">
-        <v>369.1358</v>
+        <v>484.4845</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>465</v>
+        <v>552</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -9070,46 +9488,42 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6161616161616159</v>
+        <v>3.676767676767671</v>
       </c>
       <c r="H110" t="n">
-        <v>11161</v>
+        <v>15038</v>
       </c>
       <c r="I110" t="n">
-        <v>372.4057</v>
+        <v>501.7684</v>
       </c>
       <c r="J110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L110" t="n">
-        <v>458</v>
+        <v>540</v>
       </c>
       <c r="M110" t="n">
-        <v>11116</v>
+        <v>14919</v>
       </c>
       <c r="N110" t="n">
-        <v>370.53</v>
+        <v>497.3</v>
       </c>
       <c r="O110" t="n">
-        <v>2</v>
-      </c>
-      <c r="P110" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>552</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.875700000000052</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S110" t="n">
-        <v>0</v>
-      </c>
+        <v>4.468399999999974</v>
+      </c>
+      <c r="R110" t="b">
+        <v>1</v>
+      </c>
+      <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr">
         <is>
           <t>[]</t>
@@ -9118,30 +9532,38 @@
       <c r="U110" t="n">
         <v>0</v>
       </c>
-      <c r="V110" t="n">
-        <v>465</v>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W110" t="n">
-        <v>1.875700000000052</v>
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>552</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>4.468399999999974</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>11680</v>
+        <v>14780</v>
       </c>
       <c r="C111" t="n">
-        <v>389.7231</v>
+        <v>493.1598</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>499</v>
+        <v>578</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -9149,78 +9571,82 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.64646464646464</v>
+        <v>0.1616161616161591</v>
       </c>
       <c r="H111" t="n">
-        <v>14641</v>
+        <v>15105</v>
       </c>
       <c r="I111" t="n">
-        <v>488.5219</v>
+        <v>504.004</v>
       </c>
       <c r="J111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L111" t="n">
-        <v>465</v>
+        <v>552</v>
       </c>
       <c r="M111" t="n">
-        <v>11161</v>
+        <v>15038</v>
       </c>
       <c r="N111" t="n">
-        <v>372.03</v>
+        <v>501.27</v>
       </c>
       <c r="O111" t="n">
-        <v>2</v>
-      </c>
-      <c r="P111" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P111" t="n">
+        <v>578</v>
       </c>
       <c r="Q111" t="n">
-        <v>116.4919</v>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S111" t="n">
-        <v>0</v>
-      </c>
+        <v>2.734000000000037</v>
+      </c>
+      <c r="R111" t="b">
+        <v>1</v>
+      </c>
+      <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr">
         <is>
-          <t>[505]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U111" t="n">
-        <v>1</v>
-      </c>
-      <c r="V111" t="n">
-        <v>499</v>
+        <v>0</v>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W111" t="n">
-        <v>116.4919</v>
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>578</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.734000000000037</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>12203</v>
+        <v>14944</v>
       </c>
       <c r="C112" t="n">
-        <v>407.1738</v>
+        <v>498.632</v>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -9228,78 +9654,82 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.070707070707069</v>
+        <v>0.2828282828282802</v>
       </c>
       <c r="H112" t="n">
-        <v>14745</v>
+        <v>15161</v>
       </c>
       <c r="I112" t="n">
-        <v>491.992</v>
+        <v>505.8725</v>
       </c>
       <c r="J112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L112" t="n">
-        <v>499</v>
+        <v>578</v>
       </c>
       <c r="M112" t="n">
-        <v>14641</v>
+        <v>15105</v>
       </c>
       <c r="N112" t="n">
-        <v>488.03</v>
+        <v>503.5</v>
       </c>
       <c r="O112" t="n">
-        <v>2</v>
-      </c>
-      <c r="P112" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>590</v>
       </c>
       <c r="Q112" t="n">
-        <v>3.962000000000046</v>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S112" t="n">
-        <v>0</v>
-      </c>
+        <v>2.372500000000002</v>
+      </c>
+      <c r="R112" t="b">
+        <v>1</v>
+      </c>
+      <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr">
         <is>
-          <t>[532, 533]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U112" t="n">
-        <v>2</v>
-      </c>
-      <c r="V112" t="n">
-        <v>529</v>
+        <v>0</v>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W112" t="n">
-        <v>3.962000000000046</v>
+        <v>0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>590</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2.372500000000002</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>12440</v>
+        <v>15029</v>
       </c>
       <c r="C113" t="n">
-        <v>415.0817</v>
+        <v>501.4681</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -9307,78 +9737,82 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6868686868686815</v>
+        <v>0.7676767676767646</v>
       </c>
       <c r="H113" t="n">
-        <v>14841</v>
+        <v>15221</v>
       </c>
       <c r="I113" t="n">
-        <v>495.1952</v>
+        <v>507.8745</v>
       </c>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L113" t="n">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="M113" t="n">
-        <v>14745</v>
+        <v>15161</v>
       </c>
       <c r="N113" t="n">
-        <v>491.5</v>
+        <v>505.37</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
-      </c>
-      <c r="P113" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P113" t="n">
+        <v>595</v>
       </c>
       <c r="Q113" t="n">
-        <v>3.6952</v>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S113" t="n">
-        <v>0</v>
-      </c>
+        <v>2.504500000000007</v>
+      </c>
+      <c r="R113" t="b">
+        <v>1</v>
+      </c>
+      <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr">
         <is>
-          <t>[546]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U113" t="n">
-        <v>1</v>
-      </c>
-      <c r="V113" t="n">
-        <v>535</v>
+        <v>0</v>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="W113" t="n">
-        <v>3.6952</v>
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>595</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2.504500000000007</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>12518</v>
+        <v>15168</v>
       </c>
       <c r="C114" t="n">
-        <v>417.6844</v>
+        <v>506.1061</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>536</v>
+        <v>613</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -9389,135 +9823,2611 @@
         <v>0.3737373737373701</v>
       </c>
       <c r="H114" t="n">
-        <v>14906</v>
+        <v>15353</v>
       </c>
       <c r="I114" t="n">
-        <v>497.364</v>
+        <v>512.2789</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L114" t="n">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="M114" t="n">
-        <v>14841</v>
+        <v>15221</v>
       </c>
       <c r="N114" t="n">
-        <v>494.7</v>
+        <v>507.37</v>
       </c>
       <c r="O114" t="n">
-        <v>2</v>
-      </c>
-      <c r="P114" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P114" t="n">
+        <v>613</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.663999999999987</v>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S114" t="n">
-        <v>0</v>
-      </c>
+        <v>4.908900000000017</v>
+      </c>
+      <c r="R114" t="b">
+        <v>1</v>
+      </c>
+      <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[606, 608]</t>
         </is>
       </c>
       <c r="U114" t="n">
-        <v>0</v>
-      </c>
-      <c r="V114" t="n">
-        <v>536</v>
+        <v>2</v>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>[603]</t>
+        </is>
       </c>
       <c r="W114" t="n">
-        <v>2.663999999999987</v>
+        <v>1</v>
+      </c>
+      <c r="X114" t="n">
+        <v>613</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>2.936200000000042</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>12808</v>
+        <v>15239</v>
       </c>
       <c r="C115" t="n">
-        <v>427.3607</v>
+        <v>508.4751</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
+        <v>621</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1.19191919191919</v>
+      </c>
+      <c r="H115" t="n">
+        <v>15406</v>
+      </c>
+      <c r="I115" t="n">
+        <v>514.0474</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>10</v>
+      </c>
+      <c r="L115" t="n">
+        <v>613</v>
+      </c>
+      <c r="M115" t="n">
+        <v>15353</v>
+      </c>
+      <c r="N115" t="n">
+        <v>511.77</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1</v>
+      </c>
+      <c r="P115" t="n">
+        <v>621</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>2.277400000000057</v>
+      </c>
+      <c r="R115" t="b">
+        <v>1</v>
+      </c>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>621</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>2.277400000000057</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>15306</v>
+      </c>
+      <c r="C116" t="n">
+        <v>510.7107</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>625</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1.222222222222218</v>
+      </c>
+      <c r="H116" t="n">
+        <v>15461</v>
+      </c>
+      <c r="I116" t="n">
+        <v>515.8825000000001</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>11</v>
+      </c>
+      <c r="L116" t="n">
+        <v>621</v>
+      </c>
+      <c r="M116" t="n">
+        <v>15406</v>
+      </c>
+      <c r="N116" t="n">
+        <v>513.53</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1</v>
+      </c>
+      <c r="P116" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.352500000000077</v>
+      </c>
+      <c r="R116" t="b">
+        <v>1</v>
+      </c>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>625</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2.352500000000077</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>15488</v>
+      </c>
+      <c r="C117" t="n">
+        <v>516.7835</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>637</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0.5858585858585847</v>
+      </c>
+      <c r="H117" t="n">
+        <v>15608</v>
+      </c>
+      <c r="I117" t="n">
+        <v>520.7875</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>12</v>
+      </c>
+      <c r="L117" t="n">
+        <v>625</v>
+      </c>
+      <c r="M117" t="n">
+        <v>15461</v>
+      </c>
+      <c r="N117" t="n">
+        <v>515.37</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1</v>
+      </c>
+      <c r="P117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>5.417500000000018</v>
+      </c>
+      <c r="R117" t="b">
+        <v>1</v>
+      </c>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="n">
+        <v>637</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>5.417500000000018</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>15530</v>
+      </c>
+      <c r="C118" t="n">
+        <v>518.1849</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>640</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Van</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0.5252525252525224</v>
+      </c>
+      <c r="H118" t="n">
+        <v>15656</v>
+      </c>
+      <c r="I118" t="n">
+        <v>522.3891</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>13</v>
+      </c>
+      <c r="L118" t="n">
+        <v>637</v>
+      </c>
+      <c r="M118" t="n">
+        <v>15608</v>
+      </c>
+      <c r="N118" t="n">
+        <v>520.27</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1</v>
+      </c>
+      <c r="P118" t="n">
+        <v>640</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.119100000000003</v>
+      </c>
+      <c r="R118" t="b">
+        <v>1</v>
+      </c>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U118" t="n">
+        <v>0</v>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>640</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2.119100000000003</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>15606</v>
+      </c>
+      <c r="C119" t="n">
+        <v>520.7207</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>644</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0.6464646464646435</v>
+      </c>
+      <c r="H119" t="n">
+        <v>15718</v>
+      </c>
+      <c r="I119" t="n">
+        <v>524.4578</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>14</v>
+      </c>
+      <c r="L119" t="n">
+        <v>640</v>
+      </c>
+      <c r="M119" t="n">
+        <v>15656</v>
+      </c>
+      <c r="N119" t="n">
+        <v>521.87</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1</v>
+      </c>
+      <c r="P119" t="n">
+        <v>644</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>2.587800000000016</v>
+      </c>
+      <c r="R119" t="b">
+        <v>1</v>
+      </c>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>644</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>2.587800000000016</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>15702</v>
+      </c>
+      <c r="C120" t="n">
+        <v>523.9239</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>648</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0.6464646464646435</v>
+      </c>
+      <c r="H120" t="n">
+        <v>15807</v>
+      </c>
+      <c r="I120" t="n">
+        <v>527.4274</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>15</v>
+      </c>
+      <c r="L120" t="n">
+        <v>644</v>
+      </c>
+      <c r="M120" t="n">
+        <v>15718</v>
+      </c>
+      <c r="N120" t="n">
+        <v>523.9299999999999</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1</v>
+      </c>
+      <c r="P120" t="n">
+        <v>648</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>3.497400000000084</v>
+      </c>
+      <c r="R120" t="b">
+        <v>1</v>
+      </c>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>648</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>3.497400000000084</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>15768</v>
+      </c>
+      <c r="C121" t="n">
+        <v>526.1261</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>653</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0.737373737373737</v>
+      </c>
+      <c r="H121" t="n">
+        <v>15865</v>
+      </c>
+      <c r="I121" t="n">
+        <v>529.3627</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>16</v>
+      </c>
+      <c r="L121" t="n">
+        <v>648</v>
+      </c>
+      <c r="M121" t="n">
+        <v>15807</v>
+      </c>
+      <c r="N121" t="n">
+        <v>526.9</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1</v>
+      </c>
+      <c r="P121" t="n">
+        <v>653</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.462700000000041</v>
+      </c>
+      <c r="R121" t="b">
+        <v>1</v>
+      </c>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>653</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>2.462700000000041</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>15923</v>
+      </c>
+      <c r="C122" t="n">
+        <v>531.298</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>662</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0.737373737373737</v>
+      </c>
+      <c r="H122" t="n">
+        <v>16029</v>
+      </c>
+      <c r="I122" t="n">
+        <v>534.8348</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>17</v>
+      </c>
+      <c r="L122" t="n">
+        <v>653</v>
+      </c>
+      <c r="M122" t="n">
+        <v>15865</v>
+      </c>
+      <c r="N122" t="n">
+        <v>528.83</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>6.004799999999932</v>
+      </c>
+      <c r="R122" t="b">
+        <v>1</v>
+      </c>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="n">
+        <v>662</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>6.004799999999932</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>16115</v>
+      </c>
+      <c r="C123" t="n">
+        <v>537.7044</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>679</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0.6666666666666643</v>
+      </c>
+      <c r="H123" t="n">
+        <v>16216</v>
+      </c>
+      <c r="I123" t="n">
+        <v>541.0744</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>18</v>
+      </c>
+      <c r="L123" t="n">
+        <v>662</v>
+      </c>
+      <c r="M123" t="n">
+        <v>16029</v>
+      </c>
+      <c r="N123" t="n">
+        <v>534.3</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>6.774400000000014</v>
+      </c>
+      <c r="R123" t="b">
+        <v>1</v>
+      </c>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="n">
+        <v>679</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>6.774400000000014</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>14520</v>
+      </c>
+      <c r="C124" t="n">
+        <v>484.4845</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>499</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>27.35353535353535</v>
+      </c>
+      <c r="H124" t="n">
+        <v>14641</v>
+      </c>
+      <c r="I124" t="n">
+        <v>488.5219</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>14520</v>
+      </c>
+      <c r="N124" t="n">
+        <v>484</v>
+      </c>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>4.521900000000016</v>
+      </c>
+      <c r="R124" t="b">
+        <v>1</v>
+      </c>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>[511, 526]</t>
+        </is>
+      </c>
+      <c r="U124" t="n">
+        <v>2</v>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>[505]</t>
+        </is>
+      </c>
+      <c r="W124" t="n">
+        <v>1</v>
+      </c>
+      <c r="X124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>43.99329999999998</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>14520</v>
+      </c>
+      <c r="C125" t="n">
+        <v>484.4845</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>529</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>20.87878787878788</v>
+      </c>
+      <c r="H125" t="n">
+        <v>14745</v>
+      </c>
+      <c r="I125" t="n">
+        <v>491.992</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>499</v>
+      </c>
+      <c r="M125" t="n">
+        <v>14641</v>
+      </c>
+      <c r="N125" t="n">
+        <v>488.03</v>
+      </c>
+      <c r="O125" t="n">
+        <v>2</v>
+      </c>
+      <c r="P125" t="n">
+        <v>529</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>3.962000000000046</v>
+      </c>
+      <c r="R125" t="b">
+        <v>1</v>
+      </c>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>[527]</t>
+        </is>
+      </c>
+      <c r="U125" t="n">
+        <v>1</v>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>[533]</t>
+        </is>
+      </c>
+      <c r="W125" t="n">
+        <v>1</v>
+      </c>
+      <c r="X125" t="n">
+        <v>527</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>2.193600000000004</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>14520</v>
+      </c>
+      <c r="C126" t="n">
+        <v>484.4845</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>535</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>15.46464646464646</v>
+      </c>
+      <c r="H126" t="n">
+        <v>14841</v>
+      </c>
+      <c r="I126" t="n">
+        <v>495.1952</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2</v>
+      </c>
+      <c r="K126" t="n">
+        <v>3</v>
+      </c>
+      <c r="L126" t="n">
+        <v>529</v>
+      </c>
+      <c r="M126" t="n">
+        <v>14745</v>
+      </c>
+      <c r="N126" t="n">
+        <v>491.5</v>
+      </c>
+      <c r="O126" t="n">
+        <v>2</v>
+      </c>
+      <c r="P126" t="n">
+        <v>535</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>3.6952</v>
+      </c>
+      <c r="R126" t="b">
+        <v>1</v>
+      </c>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U126" t="n">
+        <v>0</v>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W126" t="n">
+        <v>0</v>
+      </c>
+      <c r="X126" t="n">
+        <v>535</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>3.6952</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>14520</v>
+      </c>
+      <c r="C127" t="n">
+        <v>484.4845</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>536</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>10.27272727272727</v>
+      </c>
+      <c r="H127" t="n">
+        <v>14906</v>
+      </c>
+      <c r="I127" t="n">
+        <v>497.364</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>4</v>
+      </c>
+      <c r="L127" t="n">
+        <v>535</v>
+      </c>
+      <c r="M127" t="n">
+        <v>14841</v>
+      </c>
+      <c r="N127" t="n">
+        <v>494.7</v>
+      </c>
+      <c r="O127" t="n">
+        <v>2</v>
+      </c>
+      <c r="P127" t="n">
+        <v>536</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>2.663999999999987</v>
+      </c>
+      <c r="R127" t="b">
+        <v>1</v>
+      </c>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U127" t="n">
+        <v>0</v>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>536</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.663999999999987</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>14520</v>
+      </c>
+      <c r="C128" t="n">
+        <v>484.4845</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
+      <c r="E128" t="n">
         <v>538</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Carro</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>1.111111111111107</v>
-      </c>
-      <c r="H115" t="n">
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>4.525252525252522</v>
+      </c>
+      <c r="H128" t="n">
         <v>15001</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I128" t="n">
         <v>500.5339</v>
       </c>
-      <c r="J115" t="n">
-        <v>2</v>
-      </c>
-      <c r="K115" t="n">
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>5</v>
+      </c>
+      <c r="L128" t="n">
+        <v>536</v>
+      </c>
+      <c r="M128" t="n">
+        <v>14906</v>
+      </c>
+      <c r="N128" t="n">
+        <v>496.87</v>
+      </c>
+      <c r="O128" t="n">
+        <v>2</v>
+      </c>
+      <c r="P128" t="n">
+        <v>538</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>3.663900000000012</v>
+      </c>
+      <c r="R128" t="b">
+        <v>1</v>
+      </c>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U128" t="n">
+        <v>0</v>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W128" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>538</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>3.663900000000012</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>14889</v>
+      </c>
+      <c r="C129" t="n">
+        <v>496.7968</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>585</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0.2828282828282766</v>
+      </c>
+      <c r="H129" t="n">
+        <v>15084</v>
+      </c>
+      <c r="I129" t="n">
+        <v>503.3033</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2</v>
+      </c>
+      <c r="K129" t="n">
+        <v>6</v>
+      </c>
+      <c r="L129" t="n">
+        <v>538</v>
+      </c>
+      <c r="M129" t="n">
+        <v>15001</v>
+      </c>
+      <c r="N129" t="n">
+        <v>500.03</v>
+      </c>
+      <c r="O129" t="n">
+        <v>2</v>
+      </c>
+      <c r="P129" t="n">
+        <v>585</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>3.273300000000006</v>
+      </c>
+      <c r="R129" t="b">
+        <v>1</v>
+      </c>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>[541]</t>
+        </is>
+      </c>
+      <c r="U129" t="n">
+        <v>1</v>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>585</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.668299999999988</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>14979</v>
+      </c>
+      <c r="C130" t="n">
+        <v>499.7998</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>592</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0.3737373737373701</v>
+      </c>
+      <c r="H130" t="n">
+        <v>15141</v>
+      </c>
+      <c r="I130" t="n">
+        <v>505.2052</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2</v>
+      </c>
+      <c r="K130" t="n">
+        <v>7</v>
+      </c>
+      <c r="L130" t="n">
+        <v>585</v>
+      </c>
+      <c r="M130" t="n">
+        <v>15084</v>
+      </c>
+      <c r="N130" t="n">
+        <v>502.8</v>
+      </c>
+      <c r="O130" t="n">
+        <v>2</v>
+      </c>
+      <c r="P130" t="n">
+        <v>592</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>2.405199999999979</v>
+      </c>
+      <c r="R130" t="b">
+        <v>1</v>
+      </c>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U130" t="n">
+        <v>0</v>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W130" t="n">
+        <v>0</v>
+      </c>
+      <c r="X130" t="n">
+        <v>592</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.405199999999979</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>15081</v>
+      </c>
+      <c r="C131" t="n">
+        <v>503.2032</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>600</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0.7070707070707023</v>
+      </c>
+      <c r="H131" t="n">
+        <v>15234</v>
+      </c>
+      <c r="I131" t="n">
+        <v>508.3083</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2</v>
+      </c>
+      <c r="K131" t="n">
+        <v>8</v>
+      </c>
+      <c r="L131" t="n">
+        <v>592</v>
+      </c>
+      <c r="M131" t="n">
+        <v>15141</v>
+      </c>
+      <c r="N131" t="n">
+        <v>504.7</v>
+      </c>
+      <c r="O131" t="n">
+        <v>2</v>
+      </c>
+      <c r="P131" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>3.608299999999986</v>
+      </c>
+      <c r="R131" t="b">
+        <v>1</v>
+      </c>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U131" t="n">
+        <v>0</v>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W131" t="n">
+        <v>0</v>
+      </c>
+      <c r="X131" t="n">
+        <v>600</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>3.608299999999986</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>15138</v>
+      </c>
+      <c r="C132" t="n">
+        <v>505.1051</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>609</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0.4343434343434325</v>
+      </c>
+      <c r="H132" t="n">
+        <v>15296</v>
+      </c>
+      <c r="I132" t="n">
+        <v>510.377</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>9</v>
+      </c>
+      <c r="L132" t="n">
+        <v>600</v>
+      </c>
+      <c r="M132" t="n">
+        <v>15234</v>
+      </c>
+      <c r="N132" t="n">
+        <v>507.8</v>
+      </c>
+      <c r="O132" t="n">
+        <v>2</v>
+      </c>
+      <c r="P132" t="n">
+        <v>609</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>2.576999999999998</v>
+      </c>
+      <c r="R132" t="b">
+        <v>1</v>
+      </c>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U132" t="n">
+        <v>0</v>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>[608]</t>
+        </is>
+      </c>
+      <c r="W132" t="n">
+        <v>1</v>
+      </c>
+      <c r="X132" t="n">
+        <v>609</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.576999999999998</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>15213</v>
+      </c>
+      <c r="C133" t="n">
+        <v>507.6076</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>617</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0.4343434343434325</v>
+      </c>
+      <c r="H133" t="n">
+        <v>15361</v>
+      </c>
+      <c r="I133" t="n">
+        <v>512.5459</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2</v>
+      </c>
+      <c r="K133" t="n">
+        <v>10</v>
+      </c>
+      <c r="L133" t="n">
+        <v>609</v>
+      </c>
+      <c r="M133" t="n">
+        <v>15296</v>
+      </c>
+      <c r="N133" t="n">
+        <v>509.87</v>
+      </c>
+      <c r="O133" t="n">
+        <v>2</v>
+      </c>
+      <c r="P133" t="n">
+        <v>617</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>2.675899999999956</v>
+      </c>
+      <c r="R133" t="b">
+        <v>1</v>
+      </c>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U133" t="n">
+        <v>0</v>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>617</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.675899999999956</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>15285</v>
+      </c>
+      <c r="C134" t="n">
+        <v>510.01</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>624</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1.232323232323228</v>
+      </c>
+      <c r="H134" t="n">
+        <v>15420</v>
+      </c>
+      <c r="I134" t="n">
+        <v>514.5145</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>11</v>
+      </c>
+      <c r="L134" t="n">
+        <v>617</v>
+      </c>
+      <c r="M134" t="n">
+        <v>15361</v>
+      </c>
+      <c r="N134" t="n">
+        <v>512.03</v>
+      </c>
+      <c r="O134" t="n">
+        <v>2</v>
+      </c>
+      <c r="P134" t="n">
+        <v>624</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>2.484500000000025</v>
+      </c>
+      <c r="R134" t="b">
+        <v>1</v>
+      </c>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U134" t="n">
+        <v>0</v>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>624</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.484500000000025</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>15355</v>
+      </c>
+      <c r="C135" t="n">
+        <v>512.3457</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>629</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1.101010101010097</v>
+      </c>
+      <c r="H135" t="n">
+        <v>15501</v>
+      </c>
+      <c r="I135" t="n">
+        <v>517.2172</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K135" t="n">
+        <v>12</v>
+      </c>
+      <c r="L135" t="n">
+        <v>624</v>
+      </c>
+      <c r="M135" t="n">
+        <v>15420</v>
+      </c>
+      <c r="N135" t="n">
+        <v>514</v>
+      </c>
+      <c r="O135" t="n">
+        <v>2</v>
+      </c>
+      <c r="P135" t="n">
+        <v>629</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>3.217200000000048</v>
+      </c>
+      <c r="R135" t="b">
+        <v>1</v>
+      </c>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U135" t="n">
+        <v>0</v>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>[628]</t>
+        </is>
+      </c>
+      <c r="W135" t="n">
+        <v>1</v>
+      </c>
+      <c r="X135" t="n">
+        <v>629</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>3.217200000000048</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>15471</v>
+      </c>
+      <c r="C136" t="n">
+        <v>516.2162</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>636</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0.5454545454545432</v>
+      </c>
+      <c r="H136" t="n">
+        <v>15603</v>
+      </c>
+      <c r="I136" t="n">
+        <v>520.6206</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2</v>
+      </c>
+      <c r="K136" t="n">
+        <v>13</v>
+      </c>
+      <c r="L136" t="n">
+        <v>629</v>
+      </c>
+      <c r="M136" t="n">
+        <v>15501</v>
+      </c>
+      <c r="N136" t="n">
+        <v>516.7</v>
+      </c>
+      <c r="O136" t="n">
+        <v>2</v>
+      </c>
+      <c r="P136" t="n">
+        <v>636</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>3.920599999999922</v>
+      </c>
+      <c r="R136" t="b">
+        <v>1</v>
+      </c>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U136" t="n">
+        <v>0</v>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W136" t="n">
+        <v>0</v>
+      </c>
+      <c r="X136" t="n">
+        <v>636</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>3.920599999999922</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>15551</v>
+      </c>
+      <c r="C137" t="n">
+        <v>518.8856</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>641</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0.4646464646464636</v>
+      </c>
+      <c r="H137" t="n">
+        <v>15685</v>
+      </c>
+      <c r="I137" t="n">
+        <v>523.3567</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2</v>
+      </c>
+      <c r="K137" t="n">
+        <v>14</v>
+      </c>
+      <c r="L137" t="n">
+        <v>636</v>
+      </c>
+      <c r="M137" t="n">
+        <v>15603</v>
+      </c>
+      <c r="N137" t="n">
+        <v>520.1</v>
+      </c>
+      <c r="O137" t="n">
+        <v>2</v>
+      </c>
+      <c r="P137" t="n">
+        <v>641</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>3.256700000000023</v>
+      </c>
+      <c r="R137" t="b">
+        <v>1</v>
+      </c>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>641</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>3.256700000000023</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>15620</v>
+      </c>
+      <c r="C138" t="n">
+        <v>521.1879</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>645</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0.5252525252525224</v>
+      </c>
+      <c r="H138" t="n">
+        <v>15752</v>
+      </c>
+      <c r="I138" t="n">
+        <v>525.5923</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2</v>
+      </c>
+      <c r="K138" t="n">
+        <v>15</v>
+      </c>
+      <c r="L138" t="n">
+        <v>641</v>
+      </c>
+      <c r="M138" t="n">
+        <v>15685</v>
+      </c>
+      <c r="N138" t="n">
+        <v>522.83</v>
+      </c>
+      <c r="O138" t="n">
+        <v>2</v>
+      </c>
+      <c r="P138" t="n">
+        <v>645</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>2.762299999999982</v>
+      </c>
+      <c r="R138" t="b">
+        <v>1</v>
+      </c>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U138" t="n">
+        <v>0</v>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W138" t="n">
+        <v>0</v>
+      </c>
+      <c r="X138" t="n">
+        <v>645</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.762299999999982</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>15811</v>
+      </c>
+      <c r="C139" t="n">
+        <v>527.5608999999999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>656</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0.4646464646464636</v>
+      </c>
+      <c r="H139" t="n">
+        <v>15949</v>
+      </c>
+      <c r="I139" t="n">
+        <v>532.1655</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2</v>
+      </c>
+      <c r="K139" t="n">
+        <v>16</v>
+      </c>
+      <c r="L139" t="n">
+        <v>645</v>
+      </c>
+      <c r="M139" t="n">
+        <v>15752</v>
+      </c>
+      <c r="N139" t="n">
+        <v>525.0700000000001</v>
+      </c>
+      <c r="O139" t="n">
+        <v>2</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>7.095499999999902</v>
+      </c>
+      <c r="R139" t="b">
+        <v>1</v>
+      </c>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="n">
+        <v>656</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>7.095499999999902</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>15883</v>
+      </c>
+      <c r="C140" t="n">
+        <v>529.9633</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>659</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0.5454545454545432</v>
+      </c>
+      <c r="H140" t="n">
+        <v>16028</v>
+      </c>
+      <c r="I140" t="n">
+        <v>534.8015</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>17</v>
+      </c>
+      <c r="L140" t="n">
+        <v>656</v>
+      </c>
+      <c r="M140" t="n">
+        <v>15949</v>
+      </c>
+      <c r="N140" t="n">
+        <v>531.63</v>
+      </c>
+      <c r="O140" t="n">
+        <v>2</v>
+      </c>
+      <c r="P140" t="n">
+        <v>659</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>3.171500000000037</v>
+      </c>
+      <c r="R140" t="b">
+        <v>1</v>
+      </c>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U140" t="n">
+        <v>0</v>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>659</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3.171500000000037</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>15960</v>
+      </c>
+      <c r="C141" t="n">
+        <v>532.5325</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>666</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0.5252525252525224</v>
+      </c>
+      <c r="H141" t="n">
+        <v>16103</v>
+      </c>
+      <c r="I141" t="n">
+        <v>537.304</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>18</v>
+      </c>
+      <c r="L141" t="n">
+        <v>659</v>
+      </c>
+      <c r="M141" t="n">
+        <v>16028</v>
+      </c>
+      <c r="N141" t="n">
+        <v>534.27</v>
+      </c>
+      <c r="O141" t="n">
+        <v>2</v>
+      </c>
+      <c r="P141" t="n">
+        <v>666</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>3.033999999999992</v>
+      </c>
+      <c r="R141" t="b">
+        <v>1</v>
+      </c>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>666</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>3.033999999999992</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>16053</v>
+      </c>
+      <c r="C142" t="n">
+        <v>535.6356</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>674</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0.6161616161616159</v>
+      </c>
+      <c r="H142" t="n">
+        <v>16157</v>
+      </c>
+      <c r="I142" t="n">
+        <v>539.1058</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K142" t="n">
+        <v>19</v>
+      </c>
+      <c r="L142" t="n">
+        <v>666</v>
+      </c>
+      <c r="M142" t="n">
+        <v>16103</v>
+      </c>
+      <c r="N142" t="n">
+        <v>536.77</v>
+      </c>
+      <c r="O142" t="n">
+        <v>2</v>
+      </c>
+      <c r="P142" t="n">
+        <v>674</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>2.335800000000063</v>
+      </c>
+      <c r="R142" t="b">
+        <v>1</v>
+      </c>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>674</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.335800000000063</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>16124</v>
+      </c>
+      <c r="C143" t="n">
+        <v>538.0047</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>681</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0.6767676767676747</v>
+      </c>
+      <c r="H143" t="n">
+        <v>16228</v>
+      </c>
+      <c r="I143" t="n">
+        <v>541.4748</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K143" t="n">
+        <v>20</v>
+      </c>
+      <c r="L143" t="n">
+        <v>674</v>
+      </c>
+      <c r="M143" t="n">
+        <v>16157</v>
+      </c>
+      <c r="N143" t="n">
+        <v>538.5700000000001</v>
+      </c>
+      <c r="O143" t="n">
+        <v>2</v>
+      </c>
+      <c r="P143" t="n">
+        <v>681</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>2.904799999999909</v>
+      </c>
+      <c r="R143" t="b">
+        <v>1</v>
+      </c>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>681</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.904799999999909</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>16183</v>
+      </c>
+      <c r="C144" t="n">
+        <v>539.9733</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>684</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0.6464646464646435</v>
+      </c>
+      <c r="H144" t="n">
+        <v>16286</v>
+      </c>
+      <c r="I144" t="n">
+        <v>543.4101000000001</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2</v>
+      </c>
+      <c r="K144" t="n">
+        <v>21</v>
+      </c>
+      <c r="L144" t="n">
+        <v>681</v>
+      </c>
+      <c r="M144" t="n">
+        <v>16228</v>
+      </c>
+      <c r="N144" t="n">
+        <v>540.9299999999999</v>
+      </c>
+      <c r="O144" t="n">
+        <v>2</v>
+      </c>
+      <c r="P144" t="n">
+        <v>684</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>2.480100000000107</v>
+      </c>
+      <c r="R144" t="b">
+        <v>1</v>
+      </c>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>684</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.480100000000107</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>16280</v>
+      </c>
+      <c r="C145" t="n">
+        <v>543.2098999999999</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>690</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0.7272727272727266</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-404</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
         <v>22</v>
       </c>
-      <c r="L115" t="n">
-        <v>536</v>
-      </c>
-      <c r="M115" t="n">
-        <v>14906</v>
-      </c>
-      <c r="N115" t="n">
-        <v>496.87</v>
-      </c>
-      <c r="O115" t="n">
-        <v>2</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>3.663900000000012</v>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S115" t="n">
-        <v>0</v>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U115" t="n">
-        <v>0</v>
-      </c>
-      <c r="V115" t="n">
-        <v>538</v>
-      </c>
-      <c r="W115" t="n">
-        <v>3.663900000000012</v>
+      <c r="L145" t="n">
+        <v>684</v>
+      </c>
+      <c r="M145" t="n">
+        <v>16286</v>
+      </c>
+      <c r="N145" t="n">
+        <v>542.87</v>
+      </c>
+      <c r="O145" t="n">
+        <v>2</v>
+      </c>
+      <c r="P145" t="n">
+        <v>690</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R145" t="b">
+        <v>0</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>@Seguidor não cruzou a faixa@Líder e seguidor passaram de em instantes contrários@Troca de faixa</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="n">
+        <v>684</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/Headway_Sat_C_x_13M_SemMotobox_D4_0004.xlsx
+++ b/tests/Headway_Sat_C_x_13M_SemMotobox_D4_0004.xlsx
@@ -620,11 +620,11 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1458,11 +1458,11 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>[64]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>65</v>
@@ -1525,12 +1525,16 @@
         <v>-1</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.8249</v>
+        <v>-1</v>
       </c>
       <c r="R13" t="b">
-        <v>1</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T13" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1686,7 +1690,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>@Líder não cruzou a faixa@Problema com o líder</t>
+          <t>@Líder não cruzou a faixa@Problema com o líder@O seguidor apareceu após a saída do líder, não é possível computar</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2841,12 +2845,16 @@
         <v>-1</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.120600000000003</v>
+        <v>-1</v>
       </c>
       <c r="R29" t="b">
-        <v>1</v>
-      </c>
-      <c r="S29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3009,25 +3017,25 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[174]</t>
+          <t>[162, 174]</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>[162]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-1</v>
+        <v>174</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.02369999999999</v>
+        <v>53.42010000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3092,25 +3100,25 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[176, 178, 186]</t>
+          <t>[176, 178, 179, 186]</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>[179, 177]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>166</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.770499999999998</v>
+        <v>3.002999999999986</v>
       </c>
     </row>
     <row r="33">
@@ -4246,12 +4254,16 @@
         <v>-1</v>
       </c>
       <c r="Q46" t="n">
-        <v>12.4188</v>
+        <v>-1</v>
       </c>
       <c r="R46" t="b">
-        <v>1</v>
-      </c>
-      <c r="S46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr">
         <is>
           <t>[]</t>
@@ -4325,12 +4337,16 @@
         <v>-1</v>
       </c>
       <c r="Q47" t="n">
-        <v>8.99430000000001</v>
+        <v>-1</v>
       </c>
       <c r="R47" t="b">
-        <v>1</v>
-      </c>
-      <c r="S47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr">
         <is>
           <t>[]</t>
@@ -4485,12 +4501,16 @@
         <v>156</v>
       </c>
       <c r="Q49" t="n">
-        <v>93.1377</v>
+        <v>-1</v>
       </c>
       <c r="R49" t="b">
-        <v>1</v>
-      </c>
-      <c r="S49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr">
         <is>
           <t>[]</t>
@@ -4655,11 +4675,11 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[187]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4673,7 +4693,7 @@
         <v>161</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.901900000000012</v>
+        <v>2.844700000000017</v>
       </c>
     </row>
     <row r="52">
@@ -5892,12 +5912,16 @@
         <v>-1</v>
       </c>
       <c r="Q66" t="n">
-        <v>5.652799999999985</v>
+        <v>-1</v>
       </c>
       <c r="R66" t="b">
-        <v>1</v>
-      </c>
-      <c r="S66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6054,12 +6078,16 @@
         <v>-1</v>
       </c>
       <c r="Q68" t="n">
-        <v>4.0291</v>
+        <v>-1</v>
       </c>
       <c r="R68" t="b">
-        <v>1</v>
-      </c>
-      <c r="S68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr">
         <is>
           <t>[]</t>
@@ -6139,7 +6167,7 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
-          <t>[312, 313, 314, 320]</t>
+          <t>[312, 313, 314, 327]</t>
         </is>
       </c>
       <c r="U69" t="n">
@@ -6147,17 +6175,17 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>[316, 327]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X69" t="n">
         <v>-1</v>
       </c>
       <c r="Y69" t="n">
-        <v>69.7124</v>
+        <v>77.38669999999999</v>
       </c>
     </row>
     <row r="70">
@@ -6720,11 +6748,11 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>[389, 395]</t>
+          <t>[389]</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -6735,10 +6763,10 @@
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Y76" t="n">
-        <v>2.184599999999989</v>
+        <v>3.118799999999965</v>
       </c>
     </row>
     <row r="77">
@@ -7143,11 +7171,11 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>[424]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X81" t="n">
         <v>430</v>
@@ -7459,12 +7487,16 @@
         <v>-1</v>
       </c>
       <c r="Q85" t="n">
-        <v>9.242399999999975</v>
+        <v>-1</v>
       </c>
       <c r="R85" t="b">
-        <v>1</v>
-      </c>
-      <c r="S85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T85" t="inlineStr">
         <is>
           <t>[]</t>
@@ -7538,12 +7570,16 @@
         <v>-1</v>
       </c>
       <c r="Q86" t="n">
-        <v>4.519900000000007</v>
+        <v>-1</v>
       </c>
       <c r="R86" t="b">
-        <v>1</v>
-      </c>
-      <c r="S86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T86" t="inlineStr">
         <is>
           <t>[]</t>
@@ -7797,11 +7833,11 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>[312, 314]</t>
+          <t>[312]</t>
         </is>
       </c>
       <c r="W89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X89" t="n">
         <v>-1</v>
@@ -7872,25 +7908,25 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[322]</t>
         </is>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>[322, 319]</t>
+          <t>[319]</t>
         </is>
       </c>
       <c r="W90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X90" t="n">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="Y90" t="n">
-        <v>4.436800000000005</v>
+        <v>2.401400000000024</v>
       </c>
     </row>
     <row r="91">
@@ -8943,12 +8979,16 @@
         <v>-1</v>
       </c>
       <c r="Q103" t="n">
-        <v>5.432799999999986</v>
+        <v>-1</v>
       </c>
       <c r="R103" t="b">
-        <v>1</v>
-      </c>
-      <c r="S103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T103" t="inlineStr">
         <is>
           <t>[]</t>
@@ -9194,11 +9234,11 @@
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr">
         <is>
-          <t>[505, 509, 519, 522, 547]</t>
+          <t>[509, 519, 522, 547]</t>
         </is>
       </c>
       <c r="U106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V106" t="inlineStr">
         <is>
@@ -9277,25 +9317,25 @@
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
           <t>[533]</t>
         </is>
       </c>
-      <c r="U107" t="n">
-        <v>1</v>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X107" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="Y107" t="n">
-        <v>2.460500000000025</v>
+        <v>3.127800000000036</v>
       </c>
     </row>
     <row r="108">
@@ -9858,25 +9898,25 @@
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr">
         <is>
-          <t>[606, 608]</t>
+          <t>[603, 606, 608, 614]</t>
         </is>
       </c>
       <c r="U114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>[603]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X114" t="n">
         <v>613</v>
       </c>
       <c r="Y114" t="n">
-        <v>2.936200000000042</v>
+        <v>2.102100000000007</v>
       </c>
     </row>
     <row r="115">
@@ -10099,12 +10139,16 @@
         <v>-1</v>
       </c>
       <c r="Q117" t="n">
-        <v>5.417500000000018</v>
+        <v>-1</v>
       </c>
       <c r="R117" t="b">
-        <v>1</v>
-      </c>
-      <c r="S117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T117" t="inlineStr">
         <is>
           <t>[]</t>
@@ -10510,12 +10554,16 @@
         <v>-1</v>
       </c>
       <c r="Q122" t="n">
-        <v>6.004799999999932</v>
+        <v>-1</v>
       </c>
       <c r="R122" t="b">
-        <v>1</v>
-      </c>
-      <c r="S122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T122" t="inlineStr">
         <is>
           <t>[]</t>
@@ -10589,12 +10637,16 @@
         <v>-1</v>
       </c>
       <c r="Q123" t="n">
-        <v>6.774400000000014</v>
+        <v>-1</v>
       </c>
       <c r="R123" t="b">
-        <v>1</v>
-      </c>
-      <c r="S123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T123" t="inlineStr">
         <is>
           <t>[]</t>
@@ -10682,11 +10734,11 @@
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>[505]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X124" t="n">
         <v>-1</v>
@@ -11255,11 +11307,11 @@
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[601]</t>
         </is>
       </c>
       <c r="U131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V131" t="inlineStr">
         <is>
@@ -11270,10 +11322,10 @@
         <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Y131" t="n">
-        <v>3.608299999999986</v>
+        <v>2.240299999999991</v>
       </c>
     </row>
     <row r="132">
@@ -11346,11 +11398,11 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>[608]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X132" t="n">
         <v>609</v>
@@ -11587,25 +11639,25 @@
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[628]</t>
         </is>
       </c>
       <c r="U135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>[628]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X135" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Y135" t="n">
-        <v>3.217200000000048</v>
+        <v>1.782400000000052</v>
       </c>
     </row>
     <row r="136">
@@ -11911,12 +11963,16 @@
         <v>-1</v>
       </c>
       <c r="Q139" t="n">
-        <v>7.095499999999902</v>
+        <v>-1</v>
       </c>
       <c r="R139" t="b">
-        <v>1</v>
-      </c>
-      <c r="S139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>@O seguidor apareceu após a saída do líder, não é possível computar</t>
+        </is>
+      </c>
       <c r="T139" t="inlineStr">
         <is>
           <t>[]</t>
